--- a/hans/df_cashier.xlsx
+++ b/hans/df_cashier.xlsx
@@ -17589,7 +17589,7 @@
         <v>119700</v>
       </c>
       <c r="F591" s="2">
-        <v>45079.27670706018</v>
+        <v>45079.27670138889</v>
       </c>
       <c r="G591">
         <v>1079</v>
@@ -17598,7 +17598,7 @@
         <v>24</v>
       </c>
       <c r="I591">
-        <v>0</v>
+        <v>15.99</v>
       </c>
     </row>
   </sheetData>

--- a/hans/df_cashier.xlsx
+++ b/hans/df_cashier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="27">
   <si>
     <t>序号</t>
   </si>
@@ -456,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I591"/>
+  <dimension ref="A1:I672"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1561,7 +1561,7 @@
         <v>24</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>15.96</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -9179,7 +9179,7 @@
         <v>128805.76</v>
       </c>
       <c r="F301" s="2">
-        <v>45050.29977309028</v>
+        <v>45050.29976851852</v>
       </c>
       <c r="G301">
         <v>696</v>
@@ -12427,7 +12427,7 @@
         <v>128805.76</v>
       </c>
       <c r="F413" s="2">
-        <v>45050.30002427084</v>
+        <v>45093.36741699074</v>
       </c>
       <c r="G413">
         <v>44</v>
@@ -12862,7 +12862,7 @@
         <v>145.2</v>
       </c>
       <c r="F428" s="2">
-        <v>45020.41622807871</v>
+        <v>45020.41622685185</v>
       </c>
       <c r="G428">
         <v>837</v>
@@ -16371,7 +16371,7 @@
         <v>61889.26</v>
       </c>
       <c r="F549" s="2">
-        <v>45070.32880525463</v>
+        <v>45070.32879629629</v>
       </c>
       <c r="G549">
         <v>972</v>
@@ -16429,7 +16429,7 @@
         <v>171385.63</v>
       </c>
       <c r="F551" s="2">
-        <v>45070.32943100695</v>
+        <v>45091.33457175926</v>
       </c>
       <c r="G551">
         <v>946</v>
@@ -17599,6 +17599,2355 @@
       </c>
       <c r="I591">
         <v>15.99</v>
+      </c>
+    </row>
+    <row r="592" spans="1:9">
+      <c r="A592">
+        <v>599</v>
+      </c>
+      <c r="B592" t="s">
+        <v>9</v>
+      </c>
+      <c r="C592" s="2">
+        <v>45082.26713170139</v>
+      </c>
+      <c r="D592" t="s">
+        <v>21</v>
+      </c>
+      <c r="E592">
+        <v>113355.42</v>
+      </c>
+      <c r="F592" s="2">
+        <v>45082.27182870371</v>
+      </c>
+      <c r="G592">
+        <v>1011</v>
+      </c>
+      <c r="H592" t="s">
+        <v>24</v>
+      </c>
+      <c r="I592">
+        <v>110.77</v>
+      </c>
+    </row>
+    <row r="593" spans="1:9">
+      <c r="A593">
+        <v>600</v>
+      </c>
+      <c r="B593" t="s">
+        <v>11</v>
+      </c>
+      <c r="C593" s="2">
+        <v>45082.27552091435</v>
+      </c>
+      <c r="D593" t="s">
+        <v>21</v>
+      </c>
+      <c r="E593">
+        <v>6600</v>
+      </c>
+      <c r="F593" s="2">
+        <v>45082.28030092592</v>
+      </c>
+      <c r="G593">
+        <v>1062</v>
+      </c>
+      <c r="H593" t="s">
+        <v>24</v>
+      </c>
+      <c r="I593">
+        <v>15.98</v>
+      </c>
+    </row>
+    <row r="594" spans="1:9">
+      <c r="A594">
+        <v>601</v>
+      </c>
+      <c r="B594" t="s">
+        <v>12</v>
+      </c>
+      <c r="C594" s="2">
+        <v>45082.29652398148</v>
+      </c>
+      <c r="D594" t="s">
+        <v>22</v>
+      </c>
+      <c r="E594">
+        <v>4691.14</v>
+      </c>
+      <c r="F594" s="2">
+        <v>45077.29817129629</v>
+      </c>
+      <c r="G594">
+        <v>1086</v>
+      </c>
+      <c r="H594" t="s">
+        <v>25</v>
+      </c>
+      <c r="I594">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:9">
+      <c r="A595">
+        <v>602</v>
+      </c>
+      <c r="B595" t="s">
+        <v>14</v>
+      </c>
+      <c r="C595" s="2">
+        <v>45082.29683239583</v>
+      </c>
+      <c r="D595" t="s">
+        <v>21</v>
+      </c>
+      <c r="E595">
+        <v>52189.14</v>
+      </c>
+      <c r="F595" s="2">
+        <v>45082.29876157407</v>
+      </c>
+      <c r="G595">
+        <v>1084</v>
+      </c>
+      <c r="H595" t="s">
+        <v>25</v>
+      </c>
+      <c r="I595">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:9">
+      <c r="A596">
+        <v>603</v>
+      </c>
+      <c r="B596" t="s">
+        <v>17</v>
+      </c>
+      <c r="C596" s="2">
+        <v>45082.31163966435</v>
+      </c>
+      <c r="D596" t="s">
+        <v>21</v>
+      </c>
+      <c r="E596">
+        <v>1071295.55</v>
+      </c>
+      <c r="F596" s="2">
+        <v>45082.3161574074</v>
+      </c>
+      <c r="G596">
+        <v>1087</v>
+      </c>
+      <c r="H596" t="s">
+        <v>25</v>
+      </c>
+      <c r="I596">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:9">
+      <c r="A597">
+        <v>604</v>
+      </c>
+      <c r="B597" t="s">
+        <v>11</v>
+      </c>
+      <c r="C597" s="2">
+        <v>45082.31833277778</v>
+      </c>
+      <c r="D597" t="s">
+        <v>21</v>
+      </c>
+      <c r="E597">
+        <v>35871.58</v>
+      </c>
+      <c r="F597" s="2">
+        <v>45073.32300925926</v>
+      </c>
+      <c r="G597">
+        <v>1049</v>
+      </c>
+      <c r="H597" t="s">
+        <v>25</v>
+      </c>
+      <c r="I597">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:9">
+      <c r="A598">
+        <v>605</v>
+      </c>
+      <c r="B598" t="s">
+        <v>11</v>
+      </c>
+      <c r="C598" s="2">
+        <v>45082.31859561343</v>
+      </c>
+      <c r="D598" t="s">
+        <v>21</v>
+      </c>
+      <c r="E598">
+        <v>70266.08</v>
+      </c>
+      <c r="F598" s="2">
+        <v>45077.32336805556</v>
+      </c>
+      <c r="G598">
+        <v>1058</v>
+      </c>
+      <c r="H598" t="s">
+        <v>25</v>
+      </c>
+      <c r="I598">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:9">
+      <c r="A599">
+        <v>606</v>
+      </c>
+      <c r="B599" t="s">
+        <v>11</v>
+      </c>
+      <c r="C599" s="2">
+        <v>45082.32803538194</v>
+      </c>
+      <c r="D599" t="s">
+        <v>21</v>
+      </c>
+      <c r="E599">
+        <v>9774.219999999999</v>
+      </c>
+      <c r="F599" s="2">
+        <v>45078.33267361111</v>
+      </c>
+      <c r="G599">
+        <v>1080</v>
+      </c>
+      <c r="H599" t="s">
+        <v>25</v>
+      </c>
+      <c r="I599">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:9">
+      <c r="A600">
+        <v>607</v>
+      </c>
+      <c r="B600" t="s">
+        <v>11</v>
+      </c>
+      <c r="C600" s="2">
+        <v>45082.3301138426</v>
+      </c>
+      <c r="D600" t="s">
+        <v>21</v>
+      </c>
+      <c r="E600">
+        <v>66993.98</v>
+      </c>
+      <c r="F600" s="2">
+        <v>45079.33484953704</v>
+      </c>
+      <c r="G600">
+        <v>1082</v>
+      </c>
+      <c r="H600" t="s">
+        <v>25</v>
+      </c>
+      <c r="I600">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:9">
+      <c r="A601">
+        <v>608</v>
+      </c>
+      <c r="B601" t="s">
+        <v>11</v>
+      </c>
+      <c r="C601" s="2">
+        <v>45083.26546652778</v>
+      </c>
+      <c r="D601" t="s">
+        <v>21</v>
+      </c>
+      <c r="E601">
+        <v>15260.85</v>
+      </c>
+      <c r="F601" s="2">
+        <v>45083.27028935185</v>
+      </c>
+      <c r="G601">
+        <v>1097</v>
+      </c>
+      <c r="H601" t="s">
+        <v>24</v>
+      </c>
+      <c r="I601">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:9">
+      <c r="A602">
+        <v>609</v>
+      </c>
+      <c r="B602" t="s">
+        <v>11</v>
+      </c>
+      <c r="C602" s="2">
+        <v>45083.2747172801</v>
+      </c>
+      <c r="D602" t="s">
+        <v>21</v>
+      </c>
+      <c r="E602">
+        <v>1462.27</v>
+      </c>
+      <c r="F602" s="2">
+        <v>45083.27950231481</v>
+      </c>
+      <c r="G602">
+        <v>1024</v>
+      </c>
+      <c r="H602" t="s">
+        <v>24</v>
+      </c>
+      <c r="I602">
+        <v>15.97</v>
+      </c>
+    </row>
+    <row r="603" spans="1:9">
+      <c r="A603">
+        <v>610</v>
+      </c>
+      <c r="B603" t="s">
+        <v>11</v>
+      </c>
+      <c r="C603" s="2">
+        <v>45083.28968306713</v>
+      </c>
+      <c r="D603" t="s">
+        <v>21</v>
+      </c>
+      <c r="E603">
+        <v>3204</v>
+      </c>
+      <c r="F603" s="2">
+        <v>45083.29445601852</v>
+      </c>
+      <c r="G603">
+        <v>238</v>
+      </c>
+      <c r="H603" t="s">
+        <v>24</v>
+      </c>
+      <c r="I603">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="604" spans="1:9">
+      <c r="A604">
+        <v>611</v>
+      </c>
+      <c r="B604" t="s">
+        <v>11</v>
+      </c>
+      <c r="C604" s="2">
+        <v>45083.28987748842</v>
+      </c>
+      <c r="D604" t="s">
+        <v>21</v>
+      </c>
+      <c r="E604">
+        <v>1808</v>
+      </c>
+      <c r="F604" s="2">
+        <v>45083.2946875</v>
+      </c>
+      <c r="G604">
+        <v>555</v>
+      </c>
+      <c r="H604" t="s">
+        <v>24</v>
+      </c>
+      <c r="I604">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:9">
+      <c r="A605">
+        <v>612</v>
+      </c>
+      <c r="B605" t="s">
+        <v>11</v>
+      </c>
+      <c r="C605" s="2">
+        <v>45083.2900845949</v>
+      </c>
+      <c r="D605" t="s">
+        <v>21</v>
+      </c>
+      <c r="E605">
+        <v>1983</v>
+      </c>
+      <c r="F605" s="2">
+        <v>45083.29487268518</v>
+      </c>
+      <c r="G605">
+        <v>462</v>
+      </c>
+      <c r="H605" t="s">
+        <v>24</v>
+      </c>
+      <c r="I605">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:9">
+      <c r="A606">
+        <v>613</v>
+      </c>
+      <c r="B606" t="s">
+        <v>11</v>
+      </c>
+      <c r="C606" s="2">
+        <v>45083.29029728009</v>
+      </c>
+      <c r="D606" t="s">
+        <v>21</v>
+      </c>
+      <c r="E606">
+        <v>2328</v>
+      </c>
+      <c r="F606" s="2">
+        <v>45083.29509259259</v>
+      </c>
+      <c r="G606">
+        <v>426</v>
+      </c>
+      <c r="H606" t="s">
+        <v>24</v>
+      </c>
+      <c r="I606">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:9">
+      <c r="A607">
+        <v>614</v>
+      </c>
+      <c r="B607" t="s">
+        <v>13</v>
+      </c>
+      <c r="C607" s="2">
+        <v>45083.30315510416</v>
+      </c>
+      <c r="D607" t="s">
+        <v>22</v>
+      </c>
+      <c r="E607">
+        <v>17716.75</v>
+      </c>
+      <c r="F607" s="2">
+        <v>45083.30493055555</v>
+      </c>
+      <c r="G607">
+        <v>1090</v>
+      </c>
+      <c r="H607" t="s">
+        <v>24</v>
+      </c>
+      <c r="I607">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:9">
+      <c r="A608">
+        <v>615</v>
+      </c>
+      <c r="B608" t="s">
+        <v>17</v>
+      </c>
+      <c r="C608" s="2">
+        <v>45083.3124614699</v>
+      </c>
+      <c r="D608" t="s">
+        <v>21</v>
+      </c>
+      <c r="E608">
+        <v>400000</v>
+      </c>
+      <c r="F608" s="2">
+        <v>45083.31724537037</v>
+      </c>
+      <c r="G608">
+        <v>1101</v>
+      </c>
+      <c r="H608" t="s">
+        <v>24</v>
+      </c>
+      <c r="I608">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="1:9">
+      <c r="A609">
+        <v>616</v>
+      </c>
+      <c r="B609" t="s">
+        <v>17</v>
+      </c>
+      <c r="C609" s="2">
+        <v>45083.31290209491</v>
+      </c>
+      <c r="D609" t="s">
+        <v>21</v>
+      </c>
+      <c r="E609">
+        <v>671295.55</v>
+      </c>
+      <c r="F609" s="2">
+        <v>45083.31761574074</v>
+      </c>
+      <c r="G609">
+        <v>1100</v>
+      </c>
+      <c r="H609" t="s">
+        <v>24</v>
+      </c>
+      <c r="I609">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:9">
+      <c r="A610">
+        <v>617</v>
+      </c>
+      <c r="B610" t="s">
+        <v>11</v>
+      </c>
+      <c r="C610" s="2">
+        <v>45083.31443136574</v>
+      </c>
+      <c r="D610" t="s">
+        <v>21</v>
+      </c>
+      <c r="E610">
+        <v>88348.08</v>
+      </c>
+      <c r="F610" s="2">
+        <v>45082.31913194444</v>
+      </c>
+      <c r="G610">
+        <v>1098</v>
+      </c>
+      <c r="H610" t="s">
+        <v>25</v>
+      </c>
+      <c r="I610">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="611" spans="1:9">
+      <c r="A611">
+        <v>618</v>
+      </c>
+      <c r="B611" t="s">
+        <v>11</v>
+      </c>
+      <c r="C611" s="2">
+        <v>45083.3175946412</v>
+      </c>
+      <c r="D611" t="s">
+        <v>21</v>
+      </c>
+      <c r="E611">
+        <v>4064.92</v>
+      </c>
+      <c r="F611" s="2">
+        <v>45027.32217592592</v>
+      </c>
+      <c r="G611">
+        <v>324</v>
+      </c>
+      <c r="H611" t="s">
+        <v>24</v>
+      </c>
+      <c r="I611">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="612" spans="1:9">
+      <c r="A612">
+        <v>619</v>
+      </c>
+      <c r="B612" t="s">
+        <v>19</v>
+      </c>
+      <c r="C612" s="2">
+        <v>45083.36365450232</v>
+      </c>
+      <c r="D612" t="s">
+        <v>21</v>
+      </c>
+      <c r="E612">
+        <v>122000</v>
+      </c>
+      <c r="F612" s="2">
+        <v>45083.3684375</v>
+      </c>
+      <c r="G612">
+        <v>1002</v>
+      </c>
+      <c r="H612" t="s">
+        <v>24</v>
+      </c>
+      <c r="I612">
+        <v>16.24</v>
+      </c>
+    </row>
+    <row r="613" spans="1:9">
+      <c r="A613">
+        <v>620</v>
+      </c>
+      <c r="B613" t="s">
+        <v>12</v>
+      </c>
+      <c r="C613" s="2">
+        <v>45089.12170931713</v>
+      </c>
+      <c r="D613" t="s">
+        <v>22</v>
+      </c>
+      <c r="E613">
+        <v>44000</v>
+      </c>
+      <c r="F613" s="2">
+        <v>45089.12369212963</v>
+      </c>
+      <c r="G613">
+        <v>159</v>
+      </c>
+      <c r="H613" t="s">
+        <v>26</v>
+      </c>
+      <c r="I613">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="614" spans="1:9">
+      <c r="A614">
+        <v>621</v>
+      </c>
+      <c r="B614" t="s">
+        <v>12</v>
+      </c>
+      <c r="C614" s="2">
+        <v>45089.12196511574</v>
+      </c>
+      <c r="D614" t="s">
+        <v>22</v>
+      </c>
+      <c r="E614">
+        <v>16000</v>
+      </c>
+      <c r="F614" s="2">
+        <v>45089.12399305555</v>
+      </c>
+      <c r="G614">
+        <v>157</v>
+      </c>
+      <c r="H614" t="s">
+        <v>26</v>
+      </c>
+      <c r="I614">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="615" spans="1:9">
+      <c r="A615">
+        <v>622</v>
+      </c>
+      <c r="B615" t="s">
+        <v>11</v>
+      </c>
+      <c r="C615" s="2">
+        <v>45089.13424431713</v>
+      </c>
+      <c r="D615" t="s">
+        <v>21</v>
+      </c>
+      <c r="E615">
+        <v>483550</v>
+      </c>
+      <c r="F615" s="2">
+        <v>45086.13928240741</v>
+      </c>
+      <c r="G615">
+        <v>1104</v>
+      </c>
+      <c r="H615" t="s">
+        <v>24</v>
+      </c>
+      <c r="I615">
+        <v>15.98</v>
+      </c>
+    </row>
+    <row r="616" spans="1:9">
+      <c r="A616">
+        <v>623</v>
+      </c>
+      <c r="B616" t="s">
+        <v>11</v>
+      </c>
+      <c r="C616" s="2">
+        <v>45089.32575523148</v>
+      </c>
+      <c r="D616" t="s">
+        <v>21</v>
+      </c>
+      <c r="E616">
+        <v>635000</v>
+      </c>
+      <c r="F616" s="2">
+        <v>45089.33090277778</v>
+      </c>
+      <c r="G616">
+        <v>1116</v>
+      </c>
+      <c r="H616" t="s">
+        <v>24</v>
+      </c>
+      <c r="I616">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="617" spans="1:9">
+      <c r="A617">
+        <v>624</v>
+      </c>
+      <c r="B617" t="s">
+        <v>13</v>
+      </c>
+      <c r="C617" s="2">
+        <v>45089.32605342592</v>
+      </c>
+      <c r="D617" t="s">
+        <v>22</v>
+      </c>
+      <c r="E617">
+        <v>4521200</v>
+      </c>
+      <c r="F617" s="2">
+        <v>45089.33113425926</v>
+      </c>
+      <c r="G617">
+        <v>1117</v>
+      </c>
+      <c r="H617" t="s">
+        <v>25</v>
+      </c>
+      <c r="I617">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="618" spans="1:9">
+      <c r="A618">
+        <v>625</v>
+      </c>
+      <c r="B618" t="s">
+        <v>11</v>
+      </c>
+      <c r="C618" s="2">
+        <v>45089.32629896991</v>
+      </c>
+      <c r="D618" t="s">
+        <v>21</v>
+      </c>
+      <c r="E618">
+        <v>77248.08</v>
+      </c>
+      <c r="F618" s="2">
+        <v>45086.33137731482</v>
+      </c>
+      <c r="G618">
+        <v>1114</v>
+      </c>
+      <c r="H618" t="s">
+        <v>25</v>
+      </c>
+      <c r="I618">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="619" spans="1:9">
+      <c r="A619">
+        <v>626</v>
+      </c>
+      <c r="B619" t="s">
+        <v>11</v>
+      </c>
+      <c r="C619" s="2">
+        <v>45090.25986285879</v>
+      </c>
+      <c r="D619" t="s">
+        <v>21</v>
+      </c>
+      <c r="E619">
+        <v>43040</v>
+      </c>
+      <c r="F619" s="2">
+        <v>45090.26501157408</v>
+      </c>
+      <c r="G619">
+        <v>1120</v>
+      </c>
+      <c r="H619" t="s">
+        <v>24</v>
+      </c>
+      <c r="I619">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="620" spans="1:9">
+      <c r="A620">
+        <v>627</v>
+      </c>
+      <c r="B620" t="s">
+        <v>11</v>
+      </c>
+      <c r="C620" s="2">
+        <v>45090.2652399537</v>
+      </c>
+      <c r="D620" t="s">
+        <v>21</v>
+      </c>
+      <c r="E620">
+        <v>40750</v>
+      </c>
+      <c r="F620" s="2">
+        <v>45090.2703125</v>
+      </c>
+      <c r="G620">
+        <v>1113</v>
+      </c>
+      <c r="H620" t="s">
+        <v>24</v>
+      </c>
+      <c r="I620">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="621" spans="1:9">
+      <c r="A621">
+        <v>628</v>
+      </c>
+      <c r="B621" t="s">
+        <v>11</v>
+      </c>
+      <c r="C621" s="2">
+        <v>45090.26586832176</v>
+      </c>
+      <c r="D621" t="s">
+        <v>21</v>
+      </c>
+      <c r="E621">
+        <v>2988.62</v>
+      </c>
+      <c r="F621" s="2">
+        <v>45082.27071759259</v>
+      </c>
+      <c r="G621">
+        <v>1092</v>
+      </c>
+      <c r="H621" t="s">
+        <v>24</v>
+      </c>
+      <c r="I621">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="622" spans="1:9">
+      <c r="A622">
+        <v>629</v>
+      </c>
+      <c r="B622" t="s">
+        <v>11</v>
+      </c>
+      <c r="C622" s="2">
+        <v>45090.27836841435</v>
+      </c>
+      <c r="D622" t="s">
+        <v>21</v>
+      </c>
+      <c r="E622">
+        <v>45723.6</v>
+      </c>
+      <c r="F622" s="2">
+        <v>45090.28348379629</v>
+      </c>
+      <c r="G622">
+        <v>871</v>
+      </c>
+      <c r="H622" t="s">
+        <v>24</v>
+      </c>
+      <c r="I622">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="623" spans="1:9">
+      <c r="A623">
+        <v>630</v>
+      </c>
+      <c r="B623" t="s">
+        <v>13</v>
+      </c>
+      <c r="C623" s="2">
+        <v>45090.27976607639</v>
+      </c>
+      <c r="D623" t="s">
+        <v>22</v>
+      </c>
+      <c r="E623">
+        <v>3000</v>
+      </c>
+      <c r="F623" s="2">
+        <v>45091.2849074074</v>
+      </c>
+      <c r="G623">
+        <v>843</v>
+      </c>
+      <c r="H623" t="s">
+        <v>24</v>
+      </c>
+      <c r="I623">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="624" spans="1:9">
+      <c r="A624">
+        <v>631</v>
+      </c>
+      <c r="B624" t="s">
+        <v>13</v>
+      </c>
+      <c r="C624" s="2">
+        <v>45090.2799903125</v>
+      </c>
+      <c r="D624" t="s">
+        <v>22</v>
+      </c>
+      <c r="E624">
+        <v>7000</v>
+      </c>
+      <c r="F624" s="2">
+        <v>45091.28512731481</v>
+      </c>
+      <c r="G624">
+        <v>844</v>
+      </c>
+      <c r="H624" t="s">
+        <v>24</v>
+      </c>
+      <c r="I624">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="625" spans="1:9">
+      <c r="A625">
+        <v>632</v>
+      </c>
+      <c r="B625" t="s">
+        <v>13</v>
+      </c>
+      <c r="C625" s="2">
+        <v>45090.28094226852</v>
+      </c>
+      <c r="D625" t="s">
+        <v>22</v>
+      </c>
+      <c r="E625">
+        <v>13860</v>
+      </c>
+      <c r="F625" s="2">
+        <v>45091.28606481481</v>
+      </c>
+      <c r="G625">
+        <v>732</v>
+      </c>
+      <c r="H625" t="s">
+        <v>24</v>
+      </c>
+      <c r="I625">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="626" spans="1:9">
+      <c r="A626">
+        <v>633</v>
+      </c>
+      <c r="B626" t="s">
+        <v>13</v>
+      </c>
+      <c r="C626" s="2">
+        <v>45090.28140385417</v>
+      </c>
+      <c r="D626" t="s">
+        <v>22</v>
+      </c>
+      <c r="E626">
+        <v>3920</v>
+      </c>
+      <c r="F626" s="2">
+        <v>45091.36417439815</v>
+      </c>
+      <c r="G626">
+        <v>716</v>
+      </c>
+      <c r="H626" t="s">
+        <v>24</v>
+      </c>
+      <c r="I626">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="627" spans="1:9">
+      <c r="A627">
+        <v>634</v>
+      </c>
+      <c r="B627" t="s">
+        <v>14</v>
+      </c>
+      <c r="C627" s="2">
+        <v>45090.32029988426</v>
+      </c>
+      <c r="D627" t="s">
+        <v>21</v>
+      </c>
+      <c r="E627">
+        <v>249141.29</v>
+      </c>
+      <c r="F627" s="2">
+        <v>45086.32217592592</v>
+      </c>
+      <c r="G627">
+        <v>1118</v>
+      </c>
+      <c r="H627" t="s">
+        <v>25</v>
+      </c>
+      <c r="I627">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="628" spans="1:9">
+      <c r="A628">
+        <v>635</v>
+      </c>
+      <c r="B628" t="s">
+        <v>12</v>
+      </c>
+      <c r="C628" s="2">
+        <v>45090.32115996528</v>
+      </c>
+      <c r="D628" t="s">
+        <v>22</v>
+      </c>
+      <c r="E628">
+        <v>1826.18</v>
+      </c>
+      <c r="F628" s="2">
+        <v>45090.32322916666</v>
+      </c>
+      <c r="G628">
+        <v>167</v>
+      </c>
+      <c r="H628" t="s">
+        <v>26</v>
+      </c>
+      <c r="I628">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="629" spans="1:9">
+      <c r="A629">
+        <v>636</v>
+      </c>
+      <c r="B629" t="s">
+        <v>16</v>
+      </c>
+      <c r="C629" s="2">
+        <v>45090.32140813657</v>
+      </c>
+      <c r="D629" t="s">
+        <v>22</v>
+      </c>
+      <c r="E629">
+        <v>16240</v>
+      </c>
+      <c r="F629" s="2">
+        <v>45089.3234375</v>
+      </c>
+      <c r="G629">
+        <v>161</v>
+      </c>
+      <c r="H629" t="s">
+        <v>26</v>
+      </c>
+      <c r="I629">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="630" spans="1:9">
+      <c r="A630">
+        <v>637</v>
+      </c>
+      <c r="B630" t="s">
+        <v>11</v>
+      </c>
+      <c r="C630" s="2">
+        <v>45090.3226012037</v>
+      </c>
+      <c r="D630" t="s">
+        <v>21</v>
+      </c>
+      <c r="E630">
+        <v>11456.46</v>
+      </c>
+      <c r="F630" s="2">
+        <v>45090.32774305555</v>
+      </c>
+      <c r="G630">
+        <v>226</v>
+      </c>
+      <c r="H630" t="s">
+        <v>24</v>
+      </c>
+      <c r="I630">
+        <v>12.79</v>
+      </c>
+    </row>
+    <row r="631" spans="1:9">
+      <c r="A631">
+        <v>638</v>
+      </c>
+      <c r="B631" t="s">
+        <v>13</v>
+      </c>
+      <c r="C631" s="2">
+        <v>45090.33101552083</v>
+      </c>
+      <c r="D631" t="s">
+        <v>22</v>
+      </c>
+      <c r="E631">
+        <v>130919.59</v>
+      </c>
+      <c r="F631" s="2">
+        <v>45090.33612268518</v>
+      </c>
+      <c r="G631">
+        <v>1032</v>
+      </c>
+      <c r="H631" t="s">
+        <v>24</v>
+      </c>
+      <c r="I631">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="632" spans="1:9">
+      <c r="A632">
+        <v>639</v>
+      </c>
+      <c r="B632" t="s">
+        <v>13</v>
+      </c>
+      <c r="C632" s="2">
+        <v>45090.33129400463</v>
+      </c>
+      <c r="D632" t="s">
+        <v>22</v>
+      </c>
+      <c r="E632">
+        <v>130919.59</v>
+      </c>
+      <c r="F632" s="2">
+        <v>45090.33637731482</v>
+      </c>
+      <c r="G632">
+        <v>1034</v>
+      </c>
+      <c r="H632" t="s">
+        <v>24</v>
+      </c>
+      <c r="I632">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="633" spans="1:9">
+      <c r="A633">
+        <v>640</v>
+      </c>
+      <c r="B633" t="s">
+        <v>16</v>
+      </c>
+      <c r="C633" s="2">
+        <v>45090.33438561342</v>
+      </c>
+      <c r="D633" t="s">
+        <v>22</v>
+      </c>
+      <c r="E633">
+        <v>16000</v>
+      </c>
+      <c r="F633" s="2">
+        <v>45089.33638888889</v>
+      </c>
+      <c r="G633">
+        <v>1127</v>
+      </c>
+      <c r="H633" t="s">
+        <v>25</v>
+      </c>
+      <c r="I633">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="634" spans="1:9">
+      <c r="A634">
+        <v>641</v>
+      </c>
+      <c r="B634" t="s">
+        <v>15</v>
+      </c>
+      <c r="C634" s="2">
+        <v>45090.33469439815</v>
+      </c>
+      <c r="D634" t="s">
+        <v>22</v>
+      </c>
+      <c r="E634">
+        <v>44000</v>
+      </c>
+      <c r="F634" s="2">
+        <v>45089.33678240741</v>
+      </c>
+      <c r="G634">
+        <v>1125</v>
+      </c>
+      <c r="H634" t="s">
+        <v>25</v>
+      </c>
+      <c r="I634">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="635" spans="1:9">
+      <c r="A635">
+        <v>642</v>
+      </c>
+      <c r="B635" t="s">
+        <v>12</v>
+      </c>
+      <c r="C635" s="2">
+        <v>45090.33492723379</v>
+      </c>
+      <c r="D635" t="s">
+        <v>22</v>
+      </c>
+      <c r="E635">
+        <v>30000</v>
+      </c>
+      <c r="F635" s="2">
+        <v>45089.33696759259</v>
+      </c>
+      <c r="G635">
+        <v>1122</v>
+      </c>
+      <c r="H635" t="s">
+        <v>25</v>
+      </c>
+      <c r="I635">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="636" spans="1:9">
+      <c r="A636">
+        <v>643</v>
+      </c>
+      <c r="B636" t="s">
+        <v>15</v>
+      </c>
+      <c r="C636" s="2">
+        <v>45090.33745597222</v>
+      </c>
+      <c r="D636" t="s">
+        <v>22</v>
+      </c>
+      <c r="E636">
+        <v>44006.98</v>
+      </c>
+      <c r="F636" s="2">
+        <v>45090.33952546296</v>
+      </c>
+      <c r="G636">
+        <v>163</v>
+      </c>
+      <c r="H636" t="s">
+        <v>26</v>
+      </c>
+      <c r="I636">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="637" spans="1:9">
+      <c r="A637">
+        <v>644</v>
+      </c>
+      <c r="B637" t="s">
+        <v>11</v>
+      </c>
+      <c r="C637" s="2">
+        <v>45090.3707393287</v>
+      </c>
+      <c r="D637" t="s">
+        <v>21</v>
+      </c>
+      <c r="E637">
+        <v>35137.22</v>
+      </c>
+      <c r="F637" s="2">
+        <v>45084.37583333333</v>
+      </c>
+      <c r="G637">
+        <v>1110</v>
+      </c>
+      <c r="H637" t="s">
+        <v>25</v>
+      </c>
+      <c r="I637">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="638" spans="1:9">
+      <c r="A638">
+        <v>645</v>
+      </c>
+      <c r="B638" t="s">
+        <v>11</v>
+      </c>
+      <c r="C638" s="2">
+        <v>45090.37107959491</v>
+      </c>
+      <c r="D638" t="s">
+        <v>21</v>
+      </c>
+      <c r="E638">
+        <v>8513.07</v>
+      </c>
+      <c r="F638" s="2">
+        <v>45085.37614583333</v>
+      </c>
+      <c r="G638">
+        <v>1133</v>
+      </c>
+      <c r="H638" t="s">
+        <v>25</v>
+      </c>
+      <c r="I638">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="639" spans="1:9">
+      <c r="A639">
+        <v>646</v>
+      </c>
+      <c r="B639" t="s">
+        <v>11</v>
+      </c>
+      <c r="C639" s="2">
+        <v>45090.3715362963</v>
+      </c>
+      <c r="D639" t="s">
+        <v>21</v>
+      </c>
+      <c r="E639">
+        <v>1024991.69</v>
+      </c>
+      <c r="F639" s="2">
+        <v>45086.37659722222</v>
+      </c>
+      <c r="G639">
+        <v>1111</v>
+      </c>
+      <c r="H639" t="s">
+        <v>25</v>
+      </c>
+      <c r="I639">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="640" spans="1:9">
+      <c r="A640">
+        <v>647</v>
+      </c>
+      <c r="B640" t="s">
+        <v>11</v>
+      </c>
+      <c r="C640" s="2">
+        <v>45091.24177743056</v>
+      </c>
+      <c r="D640" t="s">
+        <v>21</v>
+      </c>
+      <c r="E640">
+        <v>14046.56</v>
+      </c>
+      <c r="F640" s="2">
+        <v>45090.246875</v>
+      </c>
+      <c r="G640">
+        <v>1136</v>
+      </c>
+      <c r="H640" t="s">
+        <v>25</v>
+      </c>
+      <c r="I640">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="641" spans="1:9">
+      <c r="A641">
+        <v>648</v>
+      </c>
+      <c r="B641" t="s">
+        <v>11</v>
+      </c>
+      <c r="C641" s="2">
+        <v>45091.24291491898</v>
+      </c>
+      <c r="D641" t="s">
+        <v>21</v>
+      </c>
+      <c r="E641">
+        <v>63068.44</v>
+      </c>
+      <c r="F641" s="2">
+        <v>45078.24809027778</v>
+      </c>
+      <c r="G641">
+        <v>1071</v>
+      </c>
+      <c r="H641" t="s">
+        <v>25</v>
+      </c>
+      <c r="I641">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="642" spans="1:9">
+      <c r="A642">
+        <v>649</v>
+      </c>
+      <c r="B642" t="s">
+        <v>11</v>
+      </c>
+      <c r="C642" s="2">
+        <v>45091.37758372685</v>
+      </c>
+      <c r="D642" t="s">
+        <v>21</v>
+      </c>
+      <c r="E642">
+        <v>1770</v>
+      </c>
+      <c r="F642" s="2">
+        <v>45092.3827662037</v>
+      </c>
+      <c r="G642">
+        <v>1134</v>
+      </c>
+      <c r="H642" t="s">
+        <v>24</v>
+      </c>
+      <c r="I642">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="643" spans="1:9">
+      <c r="A643">
+        <v>650</v>
+      </c>
+      <c r="B643" t="s">
+        <v>11</v>
+      </c>
+      <c r="C643" s="2">
+        <v>45092.07551144676</v>
+      </c>
+      <c r="D643" t="s">
+        <v>21</v>
+      </c>
+      <c r="E643">
+        <v>108000</v>
+      </c>
+      <c r="F643" s="2">
+        <v>45092.0774940625</v>
+      </c>
+      <c r="G643">
+        <v>1140</v>
+      </c>
+      <c r="H643" t="s">
+        <v>24</v>
+      </c>
+      <c r="I643">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="644" spans="1:9">
+      <c r="A644">
+        <v>651</v>
+      </c>
+      <c r="B644" t="s">
+        <v>14</v>
+      </c>
+      <c r="C644" s="2">
+        <v>45092.07725958333</v>
+      </c>
+      <c r="D644" t="s">
+        <v>21</v>
+      </c>
+      <c r="E644">
+        <v>177781.79</v>
+      </c>
+      <c r="F644" s="2">
+        <v>45089.07918725695</v>
+      </c>
+      <c r="G644">
+        <v>1142</v>
+      </c>
+      <c r="H644" t="s">
+        <v>25</v>
+      </c>
+      <c r="I644">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="645" spans="1:9">
+      <c r="A645">
+        <v>652</v>
+      </c>
+      <c r="B645" t="s">
+        <v>14</v>
+      </c>
+      <c r="C645" s="2">
+        <v>45092.16677890046</v>
+      </c>
+      <c r="D645" t="s">
+        <v>21</v>
+      </c>
+      <c r="E645">
+        <v>10000</v>
+      </c>
+      <c r="F645" s="2">
+        <v>45092.16871416667</v>
+      </c>
+      <c r="G645">
+        <v>1174</v>
+      </c>
+      <c r="H645" t="s">
+        <v>24</v>
+      </c>
+      <c r="I645">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="646" spans="1:9">
+      <c r="A646">
+        <v>653</v>
+      </c>
+      <c r="B646" t="s">
+        <v>14</v>
+      </c>
+      <c r="C646" s="2">
+        <v>45092.25108449074</v>
+      </c>
+      <c r="D646" t="s">
+        <v>21</v>
+      </c>
+      <c r="E646">
+        <v>34614.16</v>
+      </c>
+      <c r="F646" s="2">
+        <v>45092.25309509259</v>
+      </c>
+      <c r="G646">
+        <v>991</v>
+      </c>
+      <c r="H646" t="s">
+        <v>24</v>
+      </c>
+      <c r="I646">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="647" spans="1:9">
+      <c r="A647">
+        <v>654</v>
+      </c>
+      <c r="B647" t="s">
+        <v>11</v>
+      </c>
+      <c r="C647" s="2">
+        <v>45092.28476024306</v>
+      </c>
+      <c r="D647" t="s">
+        <v>21</v>
+      </c>
+      <c r="E647">
+        <v>17700</v>
+      </c>
+      <c r="F647" s="2">
+        <v>45092.28628472222</v>
+      </c>
+      <c r="G647">
+        <v>856</v>
+      </c>
+      <c r="H647" t="s">
+        <v>24</v>
+      </c>
+      <c r="I647">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="648" spans="1:9">
+      <c r="A648">
+        <v>655</v>
+      </c>
+      <c r="B648" t="s">
+        <v>13</v>
+      </c>
+      <c r="C648" s="2">
+        <v>45092.35057268519</v>
+      </c>
+      <c r="D648" t="s">
+        <v>22</v>
+      </c>
+      <c r="E648">
+        <v>65000</v>
+      </c>
+      <c r="F648" s="2">
+        <v>45093.35578703704</v>
+      </c>
+      <c r="G648">
+        <v>645</v>
+      </c>
+      <c r="H648" t="s">
+        <v>24</v>
+      </c>
+      <c r="I648">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="649" spans="1:9">
+      <c r="A649">
+        <v>656</v>
+      </c>
+      <c r="B649" t="s">
+        <v>13</v>
+      </c>
+      <c r="C649" s="2">
+        <v>45092.41682898148</v>
+      </c>
+      <c r="D649" t="s">
+        <v>22</v>
+      </c>
+      <c r="E649">
+        <v>1500</v>
+      </c>
+      <c r="F649" s="2">
+        <v>45093.42200231482</v>
+      </c>
+      <c r="G649">
+        <v>1128</v>
+      </c>
+      <c r="H649" t="s">
+        <v>24</v>
+      </c>
+      <c r="I649">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="650" spans="1:9">
+      <c r="A650">
+        <v>657</v>
+      </c>
+      <c r="B650" t="s">
+        <v>13</v>
+      </c>
+      <c r="C650" s="2">
+        <v>45093.10032211806</v>
+      </c>
+      <c r="D650" t="s">
+        <v>22</v>
+      </c>
+      <c r="E650">
+        <v>2000</v>
+      </c>
+      <c r="F650" s="2">
+        <v>45093.10560185185</v>
+      </c>
+      <c r="G650">
+        <v>186</v>
+      </c>
+      <c r="H650" t="s">
+        <v>26</v>
+      </c>
+      <c r="I650">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="651" spans="1:9">
+      <c r="A651">
+        <v>658</v>
+      </c>
+      <c r="B651" t="s">
+        <v>13</v>
+      </c>
+      <c r="C651" s="2">
+        <v>45093.10082221065</v>
+      </c>
+      <c r="D651" t="s">
+        <v>22</v>
+      </c>
+      <c r="E651">
+        <v>2500</v>
+      </c>
+      <c r="F651" s="2">
+        <v>45093.10606481481</v>
+      </c>
+      <c r="G651">
+        <v>184</v>
+      </c>
+      <c r="H651" t="s">
+        <v>26</v>
+      </c>
+      <c r="I651">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="652" spans="1:9">
+      <c r="A652">
+        <v>659</v>
+      </c>
+      <c r="B652" t="s">
+        <v>13</v>
+      </c>
+      <c r="C652" s="2">
+        <v>45093.10205744213</v>
+      </c>
+      <c r="D652" t="s">
+        <v>22</v>
+      </c>
+      <c r="E652">
+        <v>450</v>
+      </c>
+      <c r="F652" s="2">
+        <v>45093.10726851852</v>
+      </c>
+      <c r="G652">
+        <v>152</v>
+      </c>
+      <c r="H652" t="s">
+        <v>26</v>
+      </c>
+      <c r="I652">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="653" spans="1:9">
+      <c r="A653">
+        <v>660</v>
+      </c>
+      <c r="B653" t="s">
+        <v>13</v>
+      </c>
+      <c r="C653" s="2">
+        <v>45093.10327943287</v>
+      </c>
+      <c r="D653" t="s">
+        <v>22</v>
+      </c>
+      <c r="E653">
+        <v>100</v>
+      </c>
+      <c r="F653" s="2">
+        <v>45093.10851851852</v>
+      </c>
+      <c r="G653">
+        <v>165</v>
+      </c>
+      <c r="H653" t="s">
+        <v>26</v>
+      </c>
+      <c r="I653">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="654" spans="1:9">
+      <c r="A654">
+        <v>661</v>
+      </c>
+      <c r="B654" t="s">
+        <v>13</v>
+      </c>
+      <c r="C654" s="2">
+        <v>45093.10355166667</v>
+      </c>
+      <c r="D654" t="s">
+        <v>22</v>
+      </c>
+      <c r="E654">
+        <v>1000</v>
+      </c>
+      <c r="F654" s="2">
+        <v>45093.10880787037</v>
+      </c>
+      <c r="G654">
+        <v>169</v>
+      </c>
+      <c r="H654" t="s">
+        <v>26</v>
+      </c>
+      <c r="I654">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="655" spans="1:9">
+      <c r="A655">
+        <v>662</v>
+      </c>
+      <c r="B655" t="s">
+        <v>13</v>
+      </c>
+      <c r="C655" s="2">
+        <v>45093.10390887732</v>
+      </c>
+      <c r="D655" t="s">
+        <v>22</v>
+      </c>
+      <c r="E655">
+        <v>6275</v>
+      </c>
+      <c r="F655" s="2">
+        <v>45093.10913194445</v>
+      </c>
+      <c r="G655">
+        <v>145</v>
+      </c>
+      <c r="H655" t="s">
+        <v>26</v>
+      </c>
+      <c r="I655">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="656" spans="1:9">
+      <c r="A656">
+        <v>663</v>
+      </c>
+      <c r="B656" t="s">
+        <v>13</v>
+      </c>
+      <c r="C656" s="2">
+        <v>45093.10414628472</v>
+      </c>
+      <c r="D656" t="s">
+        <v>22</v>
+      </c>
+      <c r="E656">
+        <v>6275</v>
+      </c>
+      <c r="F656" s="2">
+        <v>45093.10940972222</v>
+      </c>
+      <c r="G656">
+        <v>143</v>
+      </c>
+      <c r="H656" t="s">
+        <v>26</v>
+      </c>
+      <c r="I656">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="657" spans="1:9">
+      <c r="A657">
+        <v>664</v>
+      </c>
+      <c r="B657" t="s">
+        <v>13</v>
+      </c>
+      <c r="C657" s="2">
+        <v>45093.10452269676</v>
+      </c>
+      <c r="D657" t="s">
+        <v>22</v>
+      </c>
+      <c r="E657">
+        <v>16059</v>
+      </c>
+      <c r="F657" s="2">
+        <v>45093.10975694445</v>
+      </c>
+      <c r="G657">
+        <v>147</v>
+      </c>
+      <c r="H657" t="s">
+        <v>26</v>
+      </c>
+      <c r="I657">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="658" spans="1:9">
+      <c r="A658">
+        <v>665</v>
+      </c>
+      <c r="B658" t="s">
+        <v>13</v>
+      </c>
+      <c r="C658" s="2">
+        <v>45093.12723783565</v>
+      </c>
+      <c r="D658" t="s">
+        <v>22</v>
+      </c>
+      <c r="E658">
+        <v>10800</v>
+      </c>
+      <c r="F658" s="2">
+        <v>45093.1325</v>
+      </c>
+      <c r="G658">
+        <v>176</v>
+      </c>
+      <c r="H658" t="s">
+        <v>26</v>
+      </c>
+      <c r="I658">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="659" spans="1:9">
+      <c r="A659">
+        <v>666</v>
+      </c>
+      <c r="B659" t="s">
+        <v>13</v>
+      </c>
+      <c r="C659" s="2">
+        <v>45093.12840322917</v>
+      </c>
+      <c r="D659" t="s">
+        <v>22</v>
+      </c>
+      <c r="E659">
+        <v>692</v>
+      </c>
+      <c r="F659" s="2">
+        <v>45093.13365740741</v>
+      </c>
+      <c r="G659">
+        <v>178</v>
+      </c>
+      <c r="H659" t="s">
+        <v>26</v>
+      </c>
+      <c r="I659">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="660" spans="1:9">
+      <c r="A660">
+        <v>667</v>
+      </c>
+      <c r="B660" t="s">
+        <v>13</v>
+      </c>
+      <c r="C660" s="2">
+        <v>45093.12946761574</v>
+      </c>
+      <c r="D660" t="s">
+        <v>22</v>
+      </c>
+      <c r="E660">
+        <v>959.42</v>
+      </c>
+      <c r="F660" s="2">
+        <v>45093.13473379629</v>
+      </c>
+      <c r="G660">
+        <v>173</v>
+      </c>
+      <c r="H660" t="s">
+        <v>26</v>
+      </c>
+      <c r="I660">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="661" spans="1:9">
+      <c r="A661">
+        <v>668</v>
+      </c>
+      <c r="B661" t="s">
+        <v>11</v>
+      </c>
+      <c r="C661" s="2">
+        <v>45093.24528377315</v>
+      </c>
+      <c r="D661" t="s">
+        <v>21</v>
+      </c>
+      <c r="E661">
+        <v>30898.08</v>
+      </c>
+      <c r="F661" s="2">
+        <v>45092.25048611111</v>
+      </c>
+      <c r="G661">
+        <v>1195</v>
+      </c>
+      <c r="H661" t="s">
+        <v>25</v>
+      </c>
+      <c r="I661">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="662" spans="1:9">
+      <c r="A662">
+        <v>669</v>
+      </c>
+      <c r="B662" t="s">
+        <v>11</v>
+      </c>
+      <c r="C662" s="2">
+        <v>45093.26582685185</v>
+      </c>
+      <c r="D662" t="s">
+        <v>21</v>
+      </c>
+      <c r="E662">
+        <v>1500</v>
+      </c>
+      <c r="F662" s="2">
+        <v>45093.27104166667</v>
+      </c>
+      <c r="G662">
+        <v>1095</v>
+      </c>
+      <c r="H662" t="s">
+        <v>24</v>
+      </c>
+      <c r="I662">
+        <v>16.01</v>
+      </c>
+    </row>
+    <row r="663" spans="1:9">
+      <c r="A663">
+        <v>670</v>
+      </c>
+      <c r="B663" t="s">
+        <v>11</v>
+      </c>
+      <c r="C663" s="2">
+        <v>45093.28976502315</v>
+      </c>
+      <c r="D663" t="s">
+        <v>21</v>
+      </c>
+      <c r="E663">
+        <v>6029.6</v>
+      </c>
+      <c r="F663" s="2">
+        <v>45093.29494212963</v>
+      </c>
+      <c r="G663">
+        <v>1006</v>
+      </c>
+      <c r="H663" t="s">
+        <v>24</v>
+      </c>
+      <c r="I663">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="664" spans="1:9">
+      <c r="A664">
+        <v>671</v>
+      </c>
+      <c r="B664" t="s">
+        <v>11</v>
+      </c>
+      <c r="C664" s="2">
+        <v>45093.2904467824</v>
+      </c>
+      <c r="D664" t="s">
+        <v>21</v>
+      </c>
+      <c r="E664">
+        <v>2748.8</v>
+      </c>
+      <c r="F664" s="2">
+        <v>45093.29565972222</v>
+      </c>
+      <c r="G664">
+        <v>458</v>
+      </c>
+      <c r="H664" t="s">
+        <v>24</v>
+      </c>
+      <c r="I664">
+        <v>16.01</v>
+      </c>
+    </row>
+    <row r="665" spans="1:9">
+      <c r="A665">
+        <v>672</v>
+      </c>
+      <c r="B665" t="s">
+        <v>13</v>
+      </c>
+      <c r="C665" s="2">
+        <v>45093.29084471065</v>
+      </c>
+      <c r="D665" t="s">
+        <v>22</v>
+      </c>
+      <c r="E665">
+        <v>29.5</v>
+      </c>
+      <c r="F665" s="2">
+        <v>45093.29607638889</v>
+      </c>
+      <c r="G665">
+        <v>923</v>
+      </c>
+      <c r="H665" t="s">
+        <v>24</v>
+      </c>
+      <c r="I665">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="666" spans="1:9">
+      <c r="A666">
+        <v>673</v>
+      </c>
+      <c r="B666" t="s">
+        <v>13</v>
+      </c>
+      <c r="C666" s="2">
+        <v>45093.29976398148</v>
+      </c>
+      <c r="D666" t="s">
+        <v>22</v>
+      </c>
+      <c r="E666">
+        <v>299</v>
+      </c>
+      <c r="F666" s="2">
+        <v>45093.30501157408</v>
+      </c>
+      <c r="G666">
+        <v>188</v>
+      </c>
+      <c r="H666" t="s">
+        <v>26</v>
+      </c>
+      <c r="I666">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="667" spans="1:9">
+      <c r="A667">
+        <v>674</v>
+      </c>
+      <c r="B667" t="s">
+        <v>13</v>
+      </c>
+      <c r="C667" s="2">
+        <v>45093.30443767361</v>
+      </c>
+      <c r="D667" t="s">
+        <v>22</v>
+      </c>
+      <c r="E667">
+        <v>18058</v>
+      </c>
+      <c r="F667" s="2">
+        <v>45093.30967592593</v>
+      </c>
+      <c r="G667">
+        <v>174</v>
+      </c>
+      <c r="H667" t="s">
+        <v>26</v>
+      </c>
+      <c r="I667">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="668" spans="1:9">
+      <c r="A668">
+        <v>675</v>
+      </c>
+      <c r="B668" t="s">
+        <v>11</v>
+      </c>
+      <c r="C668" s="2">
+        <v>45093.36229086806</v>
+      </c>
+      <c r="D668" t="s">
+        <v>21</v>
+      </c>
+      <c r="E668">
+        <v>2000</v>
+      </c>
+      <c r="F668" s="2">
+        <v>45092.36754629629</v>
+      </c>
+      <c r="G668">
+        <v>1197</v>
+      </c>
+      <c r="H668" t="s">
+        <v>25</v>
+      </c>
+      <c r="I668">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="669" spans="1:9">
+      <c r="A669">
+        <v>676</v>
+      </c>
+      <c r="B669" t="s">
+        <v>11</v>
+      </c>
+      <c r="C669" s="2">
+        <v>45096.16119362268</v>
+      </c>
+      <c r="D669" t="s">
+        <v>21</v>
+      </c>
+      <c r="E669">
+        <v>95080</v>
+      </c>
+      <c r="F669" s="2">
+        <v>45096.16650462963</v>
+      </c>
+      <c r="G669">
+        <v>1192</v>
+      </c>
+      <c r="H669" t="s">
+        <v>24</v>
+      </c>
+      <c r="I669">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="670" spans="1:9">
+      <c r="A670">
+        <v>677</v>
+      </c>
+      <c r="B670" t="s">
+        <v>11</v>
+      </c>
+      <c r="C670" s="2">
+        <v>45096.16140833333</v>
+      </c>
+      <c r="D670" t="s">
+        <v>21</v>
+      </c>
+      <c r="E670">
+        <v>89920</v>
+      </c>
+      <c r="F670" s="2">
+        <v>45096.16675925926</v>
+      </c>
+      <c r="G670">
+        <v>1182</v>
+      </c>
+      <c r="H670" t="s">
+        <v>24</v>
+      </c>
+      <c r="I670">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="671" spans="1:9">
+      <c r="A671">
+        <v>678</v>
+      </c>
+      <c r="B671" t="s">
+        <v>11</v>
+      </c>
+      <c r="C671" s="2">
+        <v>45096.16189008102</v>
+      </c>
+      <c r="D671" t="s">
+        <v>21</v>
+      </c>
+      <c r="E671">
+        <v>81982.32000000001</v>
+      </c>
+      <c r="F671" s="2">
+        <v>45096.16722222222</v>
+      </c>
+      <c r="G671">
+        <v>1157</v>
+      </c>
+      <c r="H671" t="s">
+        <v>24</v>
+      </c>
+      <c r="I671">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="672" spans="1:9">
+      <c r="A672">
+        <v>679</v>
+      </c>
+      <c r="B672" t="s">
+        <v>11</v>
+      </c>
+      <c r="C672" s="2">
+        <v>45096.16210628472</v>
+      </c>
+      <c r="D672" t="s">
+        <v>21</v>
+      </c>
+      <c r="E672">
+        <v>102610</v>
+      </c>
+      <c r="F672" s="2">
+        <v>45096.1674537037</v>
+      </c>
+      <c r="G672">
+        <v>1138</v>
+      </c>
+      <c r="H672" t="s">
+        <v>24</v>
+      </c>
+      <c r="I672">
+        <v>16.03</v>
       </c>
     </row>
   </sheetData>

--- a/hans/df_cashier.xlsx
+++ b/hans/df_cashier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2022" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="27">
   <si>
     <t>序号</t>
   </si>
@@ -456,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I672"/>
+  <dimension ref="A1:I744"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -7999,7 +7999,7 @@
         <v>24</v>
       </c>
       <c r="I260">
-        <v>41000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -16139,7 +16139,7 @@
         <v>411.05</v>
       </c>
       <c r="F541" s="2">
-        <v>45070.34891693287</v>
+        <v>45106.27959490741</v>
       </c>
       <c r="G541">
         <v>988</v>
@@ -16661,7 +16661,7 @@
         <v>75863.59</v>
       </c>
       <c r="F559" s="2">
-        <v>45071.28775017361</v>
+        <v>45071.28774305555</v>
       </c>
       <c r="G559">
         <v>138</v>
@@ -16670,7 +16670,7 @@
         <v>26</v>
       </c>
       <c r="I559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:9">
@@ -18053,7 +18053,7 @@
         <v>17716.75</v>
       </c>
       <c r="F607" s="2">
-        <v>45083.30493055555</v>
+        <v>45091.30493055555</v>
       </c>
       <c r="G607">
         <v>1090</v>
@@ -19097,7 +19097,7 @@
         <v>108000</v>
       </c>
       <c r="F643" s="2">
-        <v>45092.0774940625</v>
+        <v>45092.07748842592</v>
       </c>
       <c r="G643">
         <v>1140</v>
@@ -19106,7 +19106,7 @@
         <v>24</v>
       </c>
       <c r="I643">
-        <v>0</v>
+        <v>16.01</v>
       </c>
     </row>
     <row r="644" spans="1:9">
@@ -19126,7 +19126,7 @@
         <v>177781.79</v>
       </c>
       <c r="F644" s="2">
-        <v>45089.07918725695</v>
+        <v>45089.07917824074</v>
       </c>
       <c r="G644">
         <v>1142</v>
@@ -19155,7 +19155,7 @@
         <v>10000</v>
       </c>
       <c r="F645" s="2">
-        <v>45092.16871416667</v>
+        <v>45093.1687037037</v>
       </c>
       <c r="G645">
         <v>1174</v>
@@ -19184,7 +19184,7 @@
         <v>34614.16</v>
       </c>
       <c r="F646" s="2">
-        <v>45092.25309509259</v>
+        <v>45098.25309027778</v>
       </c>
       <c r="G646">
         <v>991</v>
@@ -19948,6 +19948,2094 @@
       </c>
       <c r="I672">
         <v>16.03</v>
+      </c>
+    </row>
+    <row r="673" spans="1:9">
+      <c r="A673">
+        <v>680</v>
+      </c>
+      <c r="B673" t="s">
+        <v>17</v>
+      </c>
+      <c r="C673" s="2">
+        <v>45097.27604265046</v>
+      </c>
+      <c r="D673" t="s">
+        <v>21</v>
+      </c>
+      <c r="E673">
+        <v>98040</v>
+      </c>
+      <c r="F673" s="2">
+        <v>45097.28143518518</v>
+      </c>
+      <c r="G673">
+        <v>1132</v>
+      </c>
+      <c r="H673" t="s">
+        <v>24</v>
+      </c>
+      <c r="I673">
+        <v>12.81</v>
+      </c>
+    </row>
+    <row r="674" spans="1:9">
+      <c r="A674">
+        <v>681</v>
+      </c>
+      <c r="B674" t="s">
+        <v>13</v>
+      </c>
+      <c r="C674" s="2">
+        <v>45097.37680258102</v>
+      </c>
+      <c r="D674" t="s">
+        <v>22</v>
+      </c>
+      <c r="E674">
+        <v>70867</v>
+      </c>
+      <c r="F674" s="2">
+        <v>45097.38216435185</v>
+      </c>
+      <c r="G674">
+        <v>1135</v>
+      </c>
+      <c r="H674" t="s">
+        <v>24</v>
+      </c>
+      <c r="I674">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="675" spans="1:9">
+      <c r="A675">
+        <v>682</v>
+      </c>
+      <c r="B675" t="s">
+        <v>13</v>
+      </c>
+      <c r="C675" s="2">
+        <v>45097.37898145834</v>
+      </c>
+      <c r="D675" t="s">
+        <v>22</v>
+      </c>
+      <c r="E675">
+        <v>20919.52</v>
+      </c>
+      <c r="F675" s="2">
+        <v>45097.38436342592</v>
+      </c>
+      <c r="G675">
+        <v>1223</v>
+      </c>
+      <c r="H675" t="s">
+        <v>24</v>
+      </c>
+      <c r="I675">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="676" spans="1:9">
+      <c r="A676">
+        <v>683</v>
+      </c>
+      <c r="B676" t="s">
+        <v>17</v>
+      </c>
+      <c r="C676" s="2">
+        <v>45098.09946819444</v>
+      </c>
+      <c r="D676" t="s">
+        <v>21</v>
+      </c>
+      <c r="E676">
+        <v>87000</v>
+      </c>
+      <c r="F676" s="2">
+        <v>45098.10492570601</v>
+      </c>
+      <c r="G676">
+        <v>1130</v>
+      </c>
+      <c r="H676" t="s">
+        <v>24</v>
+      </c>
+      <c r="I676">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="677" spans="1:9">
+      <c r="A677">
+        <v>684</v>
+      </c>
+      <c r="B677" t="s">
+        <v>14</v>
+      </c>
+      <c r="C677" s="2">
+        <v>45098.27420292824</v>
+      </c>
+      <c r="D677" t="s">
+        <v>21</v>
+      </c>
+      <c r="E677">
+        <v>108000</v>
+      </c>
+      <c r="F677" s="2">
+        <v>45098.27402777778</v>
+      </c>
+      <c r="G677">
+        <v>1228</v>
+      </c>
+      <c r="H677" t="s">
+        <v>24</v>
+      </c>
+      <c r="I677">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="678" spans="1:9">
+      <c r="A678">
+        <v>685</v>
+      </c>
+      <c r="B678" t="s">
+        <v>14</v>
+      </c>
+      <c r="C678" s="2">
+        <v>45103.31559457176</v>
+      </c>
+      <c r="D678" t="s">
+        <v>21</v>
+      </c>
+      <c r="E678">
+        <v>430.84</v>
+      </c>
+      <c r="F678" s="2">
+        <v>45103.31748842593</v>
+      </c>
+      <c r="G678">
+        <v>1265</v>
+      </c>
+      <c r="H678" t="s">
+        <v>24</v>
+      </c>
+      <c r="I678">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="679" spans="1:9">
+      <c r="A679">
+        <v>686</v>
+      </c>
+      <c r="B679" t="s">
+        <v>14</v>
+      </c>
+      <c r="C679" s="2">
+        <v>45103.31608354166</v>
+      </c>
+      <c r="D679" t="s">
+        <v>21</v>
+      </c>
+      <c r="E679">
+        <v>3600</v>
+      </c>
+      <c r="F679" s="2">
+        <v>45103.31797453704</v>
+      </c>
+      <c r="G679">
+        <v>1218</v>
+      </c>
+      <c r="H679" t="s">
+        <v>24</v>
+      </c>
+      <c r="I679">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="680" spans="1:9">
+      <c r="A680">
+        <v>687</v>
+      </c>
+      <c r="B680" t="s">
+        <v>14</v>
+      </c>
+      <c r="C680" s="2">
+        <v>45103.31644510417</v>
+      </c>
+      <c r="D680" t="s">
+        <v>21</v>
+      </c>
+      <c r="E680">
+        <v>262.25</v>
+      </c>
+      <c r="F680" s="2">
+        <v>45103.31833333334</v>
+      </c>
+      <c r="G680">
+        <v>1209</v>
+      </c>
+      <c r="H680" t="s">
+        <v>24</v>
+      </c>
+      <c r="I680">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="681" spans="1:9">
+      <c r="A681">
+        <v>688</v>
+      </c>
+      <c r="B681" t="s">
+        <v>14</v>
+      </c>
+      <c r="C681" s="2">
+        <v>45103.31664875</v>
+      </c>
+      <c r="D681" t="s">
+        <v>21</v>
+      </c>
+      <c r="E681">
+        <v>3600</v>
+      </c>
+      <c r="F681" s="2">
+        <v>45103.31856481481</v>
+      </c>
+      <c r="G681">
+        <v>1202</v>
+      </c>
+      <c r="H681" t="s">
+        <v>24</v>
+      </c>
+      <c r="I681">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="682" spans="1:9">
+      <c r="A682">
+        <v>689</v>
+      </c>
+      <c r="B682" t="s">
+        <v>14</v>
+      </c>
+      <c r="C682" s="2">
+        <v>45103.31724931713</v>
+      </c>
+      <c r="D682" t="s">
+        <v>21</v>
+      </c>
+      <c r="E682">
+        <v>90668.86</v>
+      </c>
+      <c r="F682" s="2">
+        <v>45103.31913194444</v>
+      </c>
+      <c r="G682">
+        <v>1231</v>
+      </c>
+      <c r="H682" t="s">
+        <v>24</v>
+      </c>
+      <c r="I682">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="683" spans="1:9">
+      <c r="A683">
+        <v>690</v>
+      </c>
+      <c r="B683" t="s">
+        <v>14</v>
+      </c>
+      <c r="C683" s="2">
+        <v>45103.31757541667</v>
+      </c>
+      <c r="D683" t="s">
+        <v>21</v>
+      </c>
+      <c r="E683">
+        <v>100898.66</v>
+      </c>
+      <c r="F683" s="2">
+        <v>45103.31939814815</v>
+      </c>
+      <c r="G683">
+        <v>1205</v>
+      </c>
+      <c r="H683" t="s">
+        <v>24</v>
+      </c>
+      <c r="I683">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="684" spans="1:9">
+      <c r="A684">
+        <v>691</v>
+      </c>
+      <c r="B684" t="s">
+        <v>11</v>
+      </c>
+      <c r="C684" s="2">
+        <v>45103.3580728588</v>
+      </c>
+      <c r="D684" t="s">
+        <v>21</v>
+      </c>
+      <c r="E684">
+        <v>4500</v>
+      </c>
+      <c r="F684" s="2">
+        <v>45103.36372685185</v>
+      </c>
+      <c r="G684">
+        <v>1188</v>
+      </c>
+      <c r="H684" t="s">
+        <v>24</v>
+      </c>
+      <c r="I684">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="685" spans="1:9">
+      <c r="A685">
+        <v>692</v>
+      </c>
+      <c r="B685" t="s">
+        <v>11</v>
+      </c>
+      <c r="C685" s="2">
+        <v>45103.3583500926</v>
+      </c>
+      <c r="D685" t="s">
+        <v>21</v>
+      </c>
+      <c r="E685">
+        <v>4500</v>
+      </c>
+      <c r="F685" s="2">
+        <v>45103.36402777778</v>
+      </c>
+      <c r="G685">
+        <v>1180</v>
+      </c>
+      <c r="H685" t="s">
+        <v>24</v>
+      </c>
+      <c r="I685">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="686" spans="1:9">
+      <c r="A686">
+        <v>693</v>
+      </c>
+      <c r="B686" t="s">
+        <v>11</v>
+      </c>
+      <c r="C686" s="2">
+        <v>45103.3586128588</v>
+      </c>
+      <c r="D686" t="s">
+        <v>21</v>
+      </c>
+      <c r="E686">
+        <v>4500</v>
+      </c>
+      <c r="F686" s="2">
+        <v>45103.36430555556</v>
+      </c>
+      <c r="G686">
+        <v>1155</v>
+      </c>
+      <c r="H686" t="s">
+        <v>24</v>
+      </c>
+      <c r="I686">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="687" spans="1:9">
+      <c r="A687">
+        <v>694</v>
+      </c>
+      <c r="B687" t="s">
+        <v>11</v>
+      </c>
+      <c r="C687" s="2">
+        <v>45103.35882677083</v>
+      </c>
+      <c r="D687" t="s">
+        <v>21</v>
+      </c>
+      <c r="E687">
+        <v>4500</v>
+      </c>
+      <c r="F687" s="2">
+        <v>45103.36451388889</v>
+      </c>
+      <c r="G687">
+        <v>1108</v>
+      </c>
+      <c r="H687" t="s">
+        <v>24</v>
+      </c>
+      <c r="I687">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="688" spans="1:9">
+      <c r="A688">
+        <v>695</v>
+      </c>
+      <c r="B688" t="s">
+        <v>20</v>
+      </c>
+      <c r="C688" s="2">
+        <v>45104.13230924769</v>
+      </c>
+      <c r="D688" t="s">
+        <v>23</v>
+      </c>
+      <c r="E688">
+        <v>3988.99</v>
+      </c>
+      <c r="F688" s="2">
+        <v>45093.1377152662</v>
+      </c>
+      <c r="G688">
+        <v>1199</v>
+      </c>
+      <c r="H688" t="s">
+        <v>25</v>
+      </c>
+      <c r="I688">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="689" spans="1:9">
+      <c r="A689">
+        <v>696</v>
+      </c>
+      <c r="B689" t="s">
+        <v>13</v>
+      </c>
+      <c r="C689" s="2">
+        <v>45104.13555901621</v>
+      </c>
+      <c r="D689" t="s">
+        <v>22</v>
+      </c>
+      <c r="E689">
+        <v>2710</v>
+      </c>
+      <c r="F689" s="2">
+        <v>45104.14126157408</v>
+      </c>
+      <c r="G689">
+        <v>1226</v>
+      </c>
+      <c r="H689" t="s">
+        <v>24</v>
+      </c>
+      <c r="I689">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="690" spans="1:9">
+      <c r="A690">
+        <v>697</v>
+      </c>
+      <c r="B690" t="s">
+        <v>14</v>
+      </c>
+      <c r="C690" s="2">
+        <v>45104.16220434027</v>
+      </c>
+      <c r="D690" t="s">
+        <v>21</v>
+      </c>
+      <c r="E690">
+        <v>648</v>
+      </c>
+      <c r="F690" s="2">
+        <v>45105.16405092592</v>
+      </c>
+      <c r="G690">
+        <v>949</v>
+      </c>
+      <c r="H690" t="s">
+        <v>24</v>
+      </c>
+      <c r="I690">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="691" spans="1:9">
+      <c r="A691">
+        <v>698</v>
+      </c>
+      <c r="B691" t="s">
+        <v>14</v>
+      </c>
+      <c r="C691" s="2">
+        <v>45104.27368263889</v>
+      </c>
+      <c r="D691" t="s">
+        <v>21</v>
+      </c>
+      <c r="E691">
+        <v>210</v>
+      </c>
+      <c r="F691" s="2">
+        <v>45105.27560185185</v>
+      </c>
+      <c r="G691">
+        <v>594</v>
+      </c>
+      <c r="H691" t="s">
+        <v>24</v>
+      </c>
+      <c r="I691">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="692" spans="1:9">
+      <c r="A692">
+        <v>699</v>
+      </c>
+      <c r="B692" t="s">
+        <v>14</v>
+      </c>
+      <c r="C692" s="2">
+        <v>45104.27392394676</v>
+      </c>
+      <c r="D692" t="s">
+        <v>21</v>
+      </c>
+      <c r="E692">
+        <v>200</v>
+      </c>
+      <c r="F692" s="2">
+        <v>45105.27583333333</v>
+      </c>
+      <c r="G692">
+        <v>592</v>
+      </c>
+      <c r="H692" t="s">
+        <v>24</v>
+      </c>
+      <c r="I692">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="693" spans="1:9">
+      <c r="A693">
+        <v>700</v>
+      </c>
+      <c r="B693" t="s">
+        <v>14</v>
+      </c>
+      <c r="C693" s="2">
+        <v>45104.27414225695</v>
+      </c>
+      <c r="D693" t="s">
+        <v>21</v>
+      </c>
+      <c r="E693">
+        <v>1035</v>
+      </c>
+      <c r="F693" s="2">
+        <v>45105.27600694444</v>
+      </c>
+      <c r="G693">
+        <v>596</v>
+      </c>
+      <c r="H693" t="s">
+        <v>24</v>
+      </c>
+      <c r="I693">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="694" spans="1:9">
+      <c r="A694">
+        <v>701</v>
+      </c>
+      <c r="B694" t="s">
+        <v>14</v>
+      </c>
+      <c r="C694" s="2">
+        <v>45104.27449256944</v>
+      </c>
+      <c r="D694" t="s">
+        <v>21</v>
+      </c>
+      <c r="E694">
+        <v>9602.299999999999</v>
+      </c>
+      <c r="F694" s="2">
+        <v>45105.2763425926</v>
+      </c>
+      <c r="G694">
+        <v>978</v>
+      </c>
+      <c r="H694" t="s">
+        <v>24</v>
+      </c>
+      <c r="I694">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="695" spans="1:9">
+      <c r="A695">
+        <v>702</v>
+      </c>
+      <c r="B695" t="s">
+        <v>14</v>
+      </c>
+      <c r="C695" s="2">
+        <v>45104.29833613426</v>
+      </c>
+      <c r="D695" t="s">
+        <v>21</v>
+      </c>
+      <c r="E695">
+        <v>2317.39</v>
+      </c>
+      <c r="F695" s="2">
+        <v>45105.30017361111</v>
+      </c>
+      <c r="G695">
+        <v>985</v>
+      </c>
+      <c r="H695" t="s">
+        <v>24</v>
+      </c>
+      <c r="I695">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="696" spans="1:9">
+      <c r="A696">
+        <v>703</v>
+      </c>
+      <c r="B696" t="s">
+        <v>14</v>
+      </c>
+      <c r="C696" s="2">
+        <v>45104.29877666667</v>
+      </c>
+      <c r="D696" t="s">
+        <v>21</v>
+      </c>
+      <c r="E696">
+        <v>231</v>
+      </c>
+      <c r="F696" s="2">
+        <v>45105.30063657407</v>
+      </c>
+      <c r="G696">
+        <v>212</v>
+      </c>
+      <c r="H696" t="s">
+        <v>24</v>
+      </c>
+      <c r="I696">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="697" spans="1:9">
+      <c r="A697">
+        <v>704</v>
+      </c>
+      <c r="B697" t="s">
+        <v>14</v>
+      </c>
+      <c r="C697" s="2">
+        <v>45104.29902898148</v>
+      </c>
+      <c r="D697" t="s">
+        <v>21</v>
+      </c>
+      <c r="E697">
+        <v>60</v>
+      </c>
+      <c r="F697" s="2">
+        <v>45105.30091435185</v>
+      </c>
+      <c r="G697">
+        <v>595</v>
+      </c>
+      <c r="H697" t="s">
+        <v>24</v>
+      </c>
+      <c r="I697">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="698" spans="1:9">
+      <c r="A698">
+        <v>705</v>
+      </c>
+      <c r="B698" t="s">
+        <v>14</v>
+      </c>
+      <c r="C698" s="2">
+        <v>45104.32933945602</v>
+      </c>
+      <c r="D698" t="s">
+        <v>21</v>
+      </c>
+      <c r="E698">
+        <v>226980.63</v>
+      </c>
+      <c r="F698" s="2">
+        <v>45100.33119212963</v>
+      </c>
+      <c r="G698">
+        <v>1149</v>
+      </c>
+      <c r="H698" t="s">
+        <v>25</v>
+      </c>
+      <c r="I698">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="699" spans="1:9">
+      <c r="A699">
+        <v>706</v>
+      </c>
+      <c r="B699" t="s">
+        <v>13</v>
+      </c>
+      <c r="C699" s="2">
+        <v>45104.33893170139</v>
+      </c>
+      <c r="D699" t="s">
+        <v>22</v>
+      </c>
+      <c r="E699">
+        <v>19500</v>
+      </c>
+      <c r="F699" s="2">
+        <v>45105.3406712963</v>
+      </c>
+      <c r="G699">
+        <v>1268</v>
+      </c>
+      <c r="H699" t="s">
+        <v>24</v>
+      </c>
+      <c r="I699">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="700" spans="1:9">
+      <c r="A700">
+        <v>707</v>
+      </c>
+      <c r="B700" t="s">
+        <v>14</v>
+      </c>
+      <c r="C700" s="2">
+        <v>45105.16798596064</v>
+      </c>
+      <c r="D700" t="s">
+        <v>21</v>
+      </c>
+      <c r="E700">
+        <v>217776.07</v>
+      </c>
+      <c r="F700" s="2">
+        <v>45104.16980324074</v>
+      </c>
+      <c r="G700">
+        <v>1273</v>
+      </c>
+      <c r="H700" t="s">
+        <v>25</v>
+      </c>
+      <c r="I700">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="701" spans="1:9">
+      <c r="A701">
+        <v>708</v>
+      </c>
+      <c r="B701" t="s">
+        <v>14</v>
+      </c>
+      <c r="C701" s="2">
+        <v>45106.07845518518</v>
+      </c>
+      <c r="D701" t="s">
+        <v>21</v>
+      </c>
+      <c r="E701">
+        <v>6054.4</v>
+      </c>
+      <c r="F701" s="2">
+        <v>45106.08035879629</v>
+      </c>
+      <c r="G701">
+        <v>1266</v>
+      </c>
+      <c r="H701" t="s">
+        <v>24</v>
+      </c>
+      <c r="I701">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="702" spans="1:9">
+      <c r="A702">
+        <v>709</v>
+      </c>
+      <c r="B702" t="s">
+        <v>14</v>
+      </c>
+      <c r="C702" s="2">
+        <v>45106.07872509259</v>
+      </c>
+      <c r="D702" t="s">
+        <v>21</v>
+      </c>
+      <c r="E702">
+        <v>2444</v>
+      </c>
+      <c r="F702" s="2">
+        <v>45106.08063657407</v>
+      </c>
+      <c r="G702">
+        <v>953</v>
+      </c>
+      <c r="H702" t="s">
+        <v>24</v>
+      </c>
+      <c r="I702">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="703" spans="1:9">
+      <c r="A703">
+        <v>710</v>
+      </c>
+      <c r="B703" t="s">
+        <v>14</v>
+      </c>
+      <c r="C703" s="2">
+        <v>45106.07901369213</v>
+      </c>
+      <c r="D703" t="s">
+        <v>21</v>
+      </c>
+      <c r="E703">
+        <v>4629</v>
+      </c>
+      <c r="F703" s="2">
+        <v>45106.08092592593</v>
+      </c>
+      <c r="G703">
+        <v>597</v>
+      </c>
+      <c r="H703" t="s">
+        <v>24</v>
+      </c>
+      <c r="I703">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="704" spans="1:9">
+      <c r="A704">
+        <v>711</v>
+      </c>
+      <c r="B704" t="s">
+        <v>14</v>
+      </c>
+      <c r="C704" s="2">
+        <v>45106.08041055556</v>
+      </c>
+      <c r="D704" t="s">
+        <v>21</v>
+      </c>
+      <c r="E704">
+        <v>944</v>
+      </c>
+      <c r="F704" s="2">
+        <v>45106.08203703703</v>
+      </c>
+      <c r="G704">
+        <v>957</v>
+      </c>
+      <c r="H704" t="s">
+        <v>24</v>
+      </c>
+      <c r="I704">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="705" spans="1:9">
+      <c r="A705">
+        <v>712</v>
+      </c>
+      <c r="B705" t="s">
+        <v>14</v>
+      </c>
+      <c r="C705" s="2">
+        <v>45106.08497431713</v>
+      </c>
+      <c r="D705" t="s">
+        <v>21</v>
+      </c>
+      <c r="E705">
+        <v>5192.7</v>
+      </c>
+      <c r="F705" s="2">
+        <v>45106.08688278935</v>
+      </c>
+      <c r="G705">
+        <v>984</v>
+      </c>
+      <c r="H705" t="s">
+        <v>24</v>
+      </c>
+      <c r="I705">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="706" spans="1:9">
+      <c r="A706">
+        <v>713</v>
+      </c>
+      <c r="B706" t="s">
+        <v>14</v>
+      </c>
+      <c r="C706" s="2">
+        <v>45106.08515792824</v>
+      </c>
+      <c r="D706" t="s">
+        <v>21</v>
+      </c>
+      <c r="E706">
+        <v>4538.07</v>
+      </c>
+      <c r="F706" s="2">
+        <v>45106.08706175926</v>
+      </c>
+      <c r="G706">
+        <v>958</v>
+      </c>
+      <c r="H706" t="s">
+        <v>24</v>
+      </c>
+      <c r="I706">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="707" spans="1:9">
+      <c r="A707">
+        <v>714</v>
+      </c>
+      <c r="B707" t="s">
+        <v>14</v>
+      </c>
+      <c r="C707" s="2">
+        <v>45106.08600024306</v>
+      </c>
+      <c r="D707" t="s">
+        <v>21</v>
+      </c>
+      <c r="E707">
+        <v>1760</v>
+      </c>
+      <c r="F707" s="2">
+        <v>45106.08791666666</v>
+      </c>
+      <c r="G707">
+        <v>955</v>
+      </c>
+      <c r="H707" t="s">
+        <v>24</v>
+      </c>
+      <c r="I707">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="708" spans="1:9">
+      <c r="A708">
+        <v>715</v>
+      </c>
+      <c r="B708" t="s">
+        <v>14</v>
+      </c>
+      <c r="C708" s="2">
+        <v>45106.09059217593</v>
+      </c>
+      <c r="D708" t="s">
+        <v>21</v>
+      </c>
+      <c r="E708">
+        <v>600</v>
+      </c>
+      <c r="F708" s="2">
+        <v>45106.09247685185</v>
+      </c>
+      <c r="G708">
+        <v>687</v>
+      </c>
+      <c r="H708" t="s">
+        <v>24</v>
+      </c>
+      <c r="I708">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="709" spans="1:9">
+      <c r="A709">
+        <v>716</v>
+      </c>
+      <c r="B709" t="s">
+        <v>14</v>
+      </c>
+      <c r="C709" s="2">
+        <v>45106.09305837963</v>
+      </c>
+      <c r="D709" t="s">
+        <v>21</v>
+      </c>
+      <c r="E709">
+        <v>350</v>
+      </c>
+      <c r="F709" s="2">
+        <v>45106.09494212963</v>
+      </c>
+      <c r="G709">
+        <v>680</v>
+      </c>
+      <c r="H709" t="s">
+        <v>24</v>
+      </c>
+      <c r="I709">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="710" spans="1:9">
+      <c r="A710">
+        <v>717</v>
+      </c>
+      <c r="B710" t="s">
+        <v>14</v>
+      </c>
+      <c r="C710" s="2">
+        <v>45106.09519341435</v>
+      </c>
+      <c r="D710" t="s">
+        <v>21</v>
+      </c>
+      <c r="E710">
+        <v>579</v>
+      </c>
+      <c r="F710" s="2">
+        <v>45106.09711805556</v>
+      </c>
+      <c r="G710">
+        <v>952</v>
+      </c>
+      <c r="H710" t="s">
+        <v>24</v>
+      </c>
+      <c r="I710">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="711" spans="1:9">
+      <c r="A711">
+        <v>718</v>
+      </c>
+      <c r="B711" t="s">
+        <v>14</v>
+      </c>
+      <c r="C711" s="2">
+        <v>45106.09544361111</v>
+      </c>
+      <c r="D711" t="s">
+        <v>21</v>
+      </c>
+      <c r="E711">
+        <v>33663.08</v>
+      </c>
+      <c r="F711" s="2">
+        <v>45106.0972800926</v>
+      </c>
+      <c r="G711">
+        <v>986</v>
+      </c>
+      <c r="H711" t="s">
+        <v>24</v>
+      </c>
+      <c r="I711">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="712" spans="1:9">
+      <c r="A712">
+        <v>719</v>
+      </c>
+      <c r="B712" t="s">
+        <v>14</v>
+      </c>
+      <c r="C712" s="2">
+        <v>45106.09568512731</v>
+      </c>
+      <c r="D712" t="s">
+        <v>21</v>
+      </c>
+      <c r="E712">
+        <v>4770.25</v>
+      </c>
+      <c r="F712" s="2">
+        <v>45106.0975462963</v>
+      </c>
+      <c r="G712">
+        <v>1258</v>
+      </c>
+      <c r="H712" t="s">
+        <v>24</v>
+      </c>
+      <c r="I712">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="713" spans="1:9">
+      <c r="A713">
+        <v>720</v>
+      </c>
+      <c r="B713" t="s">
+        <v>9</v>
+      </c>
+      <c r="C713" s="2">
+        <v>45106.13057633102</v>
+      </c>
+      <c r="D713" t="s">
+        <v>21</v>
+      </c>
+      <c r="E713">
+        <v>70612.39</v>
+      </c>
+      <c r="F713" s="2">
+        <v>45106.13628775463</v>
+      </c>
+      <c r="G713">
+        <v>1105</v>
+      </c>
+      <c r="H713" t="s">
+        <v>24</v>
+      </c>
+      <c r="I713">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="714" spans="1:9">
+      <c r="A714">
+        <v>721</v>
+      </c>
+      <c r="B714" t="s">
+        <v>11</v>
+      </c>
+      <c r="C714" s="2">
+        <v>45106.26803633102</v>
+      </c>
+      <c r="D714" t="s">
+        <v>21</v>
+      </c>
+      <c r="E714">
+        <v>1117</v>
+      </c>
+      <c r="F714" s="2">
+        <v>45106.27359953704</v>
+      </c>
+      <c r="G714">
+        <v>569</v>
+      </c>
+      <c r="H714" t="s">
+        <v>24</v>
+      </c>
+      <c r="I714">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="715" spans="1:9">
+      <c r="A715">
+        <v>722</v>
+      </c>
+      <c r="B715" t="s">
+        <v>11</v>
+      </c>
+      <c r="C715" s="2">
+        <v>45106.26830864583</v>
+      </c>
+      <c r="D715" t="s">
+        <v>21</v>
+      </c>
+      <c r="E715">
+        <v>31146.68</v>
+      </c>
+      <c r="F715" s="2">
+        <v>45106.2740162037</v>
+      </c>
+      <c r="G715">
+        <v>561</v>
+      </c>
+      <c r="H715" t="s">
+        <v>24</v>
+      </c>
+      <c r="I715">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="716" spans="1:9">
+      <c r="A716">
+        <v>723</v>
+      </c>
+      <c r="B716" t="s">
+        <v>11</v>
+      </c>
+      <c r="C716" s="2">
+        <v>45106.26862291666</v>
+      </c>
+      <c r="D716" t="s">
+        <v>21</v>
+      </c>
+      <c r="E716">
+        <v>284</v>
+      </c>
+      <c r="F716" s="2">
+        <v>45106.27436342592</v>
+      </c>
+      <c r="G716">
+        <v>547</v>
+      </c>
+      <c r="H716" t="s">
+        <v>24</v>
+      </c>
+      <c r="I716">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="717" spans="1:9">
+      <c r="A717">
+        <v>724</v>
+      </c>
+      <c r="B717" t="s">
+        <v>11</v>
+      </c>
+      <c r="C717" s="2">
+        <v>45106.26880077546</v>
+      </c>
+      <c r="D717" t="s">
+        <v>21</v>
+      </c>
+      <c r="E717">
+        <v>583.5</v>
+      </c>
+      <c r="F717" s="2">
+        <v>45106.27458333333</v>
+      </c>
+      <c r="G717">
+        <v>460</v>
+      </c>
+      <c r="H717" t="s">
+        <v>24</v>
+      </c>
+      <c r="I717">
+        <v>15.99</v>
+      </c>
+    </row>
+    <row r="718" spans="1:9">
+      <c r="A718">
+        <v>725</v>
+      </c>
+      <c r="B718" t="s">
+        <v>13</v>
+      </c>
+      <c r="C718" s="2">
+        <v>45106.2713716088</v>
+      </c>
+      <c r="D718" t="s">
+        <v>22</v>
+      </c>
+      <c r="E718">
+        <v>34024</v>
+      </c>
+      <c r="F718" s="2">
+        <v>45106.27709504629</v>
+      </c>
+      <c r="G718">
+        <v>1213</v>
+      </c>
+      <c r="H718" t="s">
+        <v>24</v>
+      </c>
+      <c r="I718">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="719" spans="1:9">
+      <c r="A719">
+        <v>726</v>
+      </c>
+      <c r="B719" t="s">
+        <v>14</v>
+      </c>
+      <c r="C719" s="2">
+        <v>45106.28038733796</v>
+      </c>
+      <c r="D719" t="s">
+        <v>21</v>
+      </c>
+      <c r="E719">
+        <v>4107.55</v>
+      </c>
+      <c r="F719" s="2">
+        <v>45106.28230324074</v>
+      </c>
+      <c r="G719">
+        <v>1287</v>
+      </c>
+      <c r="H719" t="s">
+        <v>24</v>
+      </c>
+      <c r="I719">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="720" spans="1:9">
+      <c r="A720">
+        <v>727</v>
+      </c>
+      <c r="B720" t="s">
+        <v>13</v>
+      </c>
+      <c r="C720" s="2">
+        <v>45106.28502810185</v>
+      </c>
+      <c r="D720" t="s">
+        <v>22</v>
+      </c>
+      <c r="E720">
+        <v>13780</v>
+      </c>
+      <c r="F720" s="2">
+        <v>45106.29081166667</v>
+      </c>
+      <c r="G720">
+        <v>1161</v>
+      </c>
+      <c r="H720" t="s">
+        <v>24</v>
+      </c>
+      <c r="I720">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="721" spans="1:9">
+      <c r="A721">
+        <v>728</v>
+      </c>
+      <c r="B721" t="s">
+        <v>13</v>
+      </c>
+      <c r="C721" s="2">
+        <v>45106.28822616898</v>
+      </c>
+      <c r="D721" t="s">
+        <v>22</v>
+      </c>
+      <c r="E721">
+        <v>12840</v>
+      </c>
+      <c r="F721" s="2">
+        <v>45106.29391108796</v>
+      </c>
+      <c r="G721">
+        <v>1170</v>
+      </c>
+      <c r="H721" t="s">
+        <v>24</v>
+      </c>
+      <c r="I721">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="722" spans="1:9">
+      <c r="A722">
+        <v>729</v>
+      </c>
+      <c r="B722" t="s">
+        <v>13</v>
+      </c>
+      <c r="C722" s="2">
+        <v>45107.08701267361</v>
+      </c>
+      <c r="D722" t="s">
+        <v>22</v>
+      </c>
+      <c r="E722">
+        <v>6415</v>
+      </c>
+      <c r="F722" s="2">
+        <v>45107.09269675926</v>
+      </c>
+      <c r="G722">
+        <v>205</v>
+      </c>
+      <c r="H722" t="s">
+        <v>26</v>
+      </c>
+      <c r="I722">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="723" spans="1:9">
+      <c r="A723">
+        <v>730</v>
+      </c>
+      <c r="B723" t="s">
+        <v>13</v>
+      </c>
+      <c r="C723" s="2">
+        <v>45107.08733621528</v>
+      </c>
+      <c r="D723" t="s">
+        <v>22</v>
+      </c>
+      <c r="E723">
+        <v>1709</v>
+      </c>
+      <c r="F723" s="2">
+        <v>45107.09313657408</v>
+      </c>
+      <c r="G723">
+        <v>203</v>
+      </c>
+      <c r="H723" t="s">
+        <v>26</v>
+      </c>
+      <c r="I723">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="724" spans="1:9">
+      <c r="A724">
+        <v>731</v>
+      </c>
+      <c r="B724" t="s">
+        <v>13</v>
+      </c>
+      <c r="C724" s="2">
+        <v>45107.08771158565</v>
+      </c>
+      <c r="D724" t="s">
+        <v>22</v>
+      </c>
+      <c r="E724">
+        <v>126</v>
+      </c>
+      <c r="F724" s="2">
+        <v>45107.09355324074</v>
+      </c>
+      <c r="G724">
+        <v>200</v>
+      </c>
+      <c r="H724" t="s">
+        <v>26</v>
+      </c>
+      <c r="I724">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="725" spans="1:9">
+      <c r="A725">
+        <v>732</v>
+      </c>
+      <c r="B725" t="s">
+        <v>13</v>
+      </c>
+      <c r="C725" s="2">
+        <v>45107.08804940972</v>
+      </c>
+      <c r="D725" t="s">
+        <v>22</v>
+      </c>
+      <c r="E725">
+        <v>1800</v>
+      </c>
+      <c r="F725" s="2">
+        <v>45107.09385416667</v>
+      </c>
+      <c r="G725">
+        <v>192</v>
+      </c>
+      <c r="H725" t="s">
+        <v>26</v>
+      </c>
+      <c r="I725">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="726" spans="1:9">
+      <c r="A726">
+        <v>733</v>
+      </c>
+      <c r="B726" t="s">
+        <v>13</v>
+      </c>
+      <c r="C726" s="2">
+        <v>45107.08850137731</v>
+      </c>
+      <c r="D726" t="s">
+        <v>22</v>
+      </c>
+      <c r="E726">
+        <v>550</v>
+      </c>
+      <c r="F726" s="2">
+        <v>45107.0943287037</v>
+      </c>
+      <c r="G726">
+        <v>190</v>
+      </c>
+      <c r="H726" t="s">
+        <v>26</v>
+      </c>
+      <c r="I726">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="727" spans="1:9">
+      <c r="A727">
+        <v>734</v>
+      </c>
+      <c r="B727" t="s">
+        <v>13</v>
+      </c>
+      <c r="C727" s="2">
+        <v>45107.08890452547</v>
+      </c>
+      <c r="D727" t="s">
+        <v>22</v>
+      </c>
+      <c r="E727">
+        <v>2281</v>
+      </c>
+      <c r="F727" s="2">
+        <v>45107.09472222222</v>
+      </c>
+      <c r="G727">
+        <v>182</v>
+      </c>
+      <c r="H727" t="s">
+        <v>26</v>
+      </c>
+      <c r="I727">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="728" spans="1:9">
+      <c r="A728">
+        <v>735</v>
+      </c>
+      <c r="B728" t="s">
+        <v>13</v>
+      </c>
+      <c r="C728" s="2">
+        <v>45107.08913523148</v>
+      </c>
+      <c r="D728" t="s">
+        <v>22</v>
+      </c>
+      <c r="E728">
+        <v>148</v>
+      </c>
+      <c r="F728" s="2">
+        <v>45107.09496527778</v>
+      </c>
+      <c r="G728">
+        <v>180</v>
+      </c>
+      <c r="H728" t="s">
+        <v>26</v>
+      </c>
+      <c r="I728">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="729" spans="1:9">
+      <c r="A729">
+        <v>736</v>
+      </c>
+      <c r="B729" t="s">
+        <v>13</v>
+      </c>
+      <c r="C729" s="2">
+        <v>45107.09471633102</v>
+      </c>
+      <c r="D729" t="s">
+        <v>22</v>
+      </c>
+      <c r="E729">
+        <v>40408.19</v>
+      </c>
+      <c r="F729" s="2">
+        <v>45107.10050925926</v>
+      </c>
+      <c r="G729">
+        <v>171</v>
+      </c>
+      <c r="H729" t="s">
+        <v>26</v>
+      </c>
+      <c r="I729">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="730" spans="1:9">
+      <c r="A730">
+        <v>737</v>
+      </c>
+      <c r="B730" t="s">
+        <v>19</v>
+      </c>
+      <c r="C730" s="2">
+        <v>45107.11760469907</v>
+      </c>
+      <c r="D730" t="s">
+        <v>21</v>
+      </c>
+      <c r="E730">
+        <v>1191.86</v>
+      </c>
+      <c r="F730" s="2">
+        <v>45107.12335387732</v>
+      </c>
+      <c r="G730">
+        <v>1190</v>
+      </c>
+      <c r="H730" t="s">
+        <v>24</v>
+      </c>
+      <c r="I730">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="731" spans="1:9">
+      <c r="A731">
+        <v>738</v>
+      </c>
+      <c r="B731" t="s">
+        <v>19</v>
+      </c>
+      <c r="C731" s="2">
+        <v>45107.11783400463</v>
+      </c>
+      <c r="D731" t="s">
+        <v>21</v>
+      </c>
+      <c r="E731">
+        <v>860</v>
+      </c>
+      <c r="F731" s="2">
+        <v>45107.12365206019</v>
+      </c>
+      <c r="G731">
+        <v>1186</v>
+      </c>
+      <c r="H731" t="s">
+        <v>24</v>
+      </c>
+      <c r="I731">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="732" spans="1:9">
+      <c r="A732">
+        <v>739</v>
+      </c>
+      <c r="B732" t="s">
+        <v>19</v>
+      </c>
+      <c r="C732" s="2">
+        <v>45107.1181225</v>
+      </c>
+      <c r="D732" t="s">
+        <v>21</v>
+      </c>
+      <c r="E732">
+        <v>926</v>
+      </c>
+      <c r="F732" s="2">
+        <v>45107.12393702546</v>
+      </c>
+      <c r="G732">
+        <v>1178</v>
+      </c>
+      <c r="H732" t="s">
+        <v>24</v>
+      </c>
+      <c r="I732">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="733" spans="1:9">
+      <c r="A733">
+        <v>740</v>
+      </c>
+      <c r="B733" t="s">
+        <v>19</v>
+      </c>
+      <c r="C733" s="2">
+        <v>45107.11836908565</v>
+      </c>
+      <c r="D733" t="s">
+        <v>21</v>
+      </c>
+      <c r="E733">
+        <v>938.49</v>
+      </c>
+      <c r="F733" s="2">
+        <v>45107.12416447917</v>
+      </c>
+      <c r="G733">
+        <v>1093</v>
+      </c>
+      <c r="H733" t="s">
+        <v>24</v>
+      </c>
+      <c r="I733">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="734" spans="1:9">
+      <c r="A734">
+        <v>741</v>
+      </c>
+      <c r="B734" t="s">
+        <v>17</v>
+      </c>
+      <c r="C734" s="2">
+        <v>45107.13142309028</v>
+      </c>
+      <c r="D734" t="s">
+        <v>21</v>
+      </c>
+      <c r="E734">
+        <v>20520</v>
+      </c>
+      <c r="F734" s="2">
+        <v>45107.13719082176</v>
+      </c>
+      <c r="G734">
+        <v>1176</v>
+      </c>
+      <c r="H734" t="s">
+        <v>24</v>
+      </c>
+      <c r="I734">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="735" spans="1:9">
+      <c r="A735">
+        <v>742</v>
+      </c>
+      <c r="B735" t="s">
+        <v>17</v>
+      </c>
+      <c r="C735" s="2">
+        <v>45107.13809766203</v>
+      </c>
+      <c r="D735" t="s">
+        <v>21</v>
+      </c>
+      <c r="E735">
+        <v>1750</v>
+      </c>
+      <c r="F735" s="2">
+        <v>45107.14385424768</v>
+      </c>
+      <c r="G735">
+        <v>1272</v>
+      </c>
+      <c r="H735" t="s">
+        <v>24</v>
+      </c>
+      <c r="I735">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="736" spans="1:9">
+      <c r="A736">
+        <v>743</v>
+      </c>
+      <c r="B736" t="s">
+        <v>19</v>
+      </c>
+      <c r="C736" s="2">
+        <v>45107.15515900463</v>
+      </c>
+      <c r="D736" t="s">
+        <v>21</v>
+      </c>
+      <c r="E736">
+        <v>9028</v>
+      </c>
+      <c r="F736" s="2">
+        <v>45107.16089950231</v>
+      </c>
+      <c r="G736">
+        <v>1163</v>
+      </c>
+      <c r="H736" t="s">
+        <v>24</v>
+      </c>
+      <c r="I736">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="737" spans="1:9">
+      <c r="A737">
+        <v>744</v>
+      </c>
+      <c r="B737" t="s">
+        <v>19</v>
+      </c>
+      <c r="C737" s="2">
+        <v>45107.15538318287</v>
+      </c>
+      <c r="D737" t="s">
+        <v>21</v>
+      </c>
+      <c r="E737">
+        <v>1202</v>
+      </c>
+      <c r="F737" s="2">
+        <v>45107.16119741898</v>
+      </c>
+      <c r="G737">
+        <v>648</v>
+      </c>
+      <c r="H737" t="s">
+        <v>24</v>
+      </c>
+      <c r="I737">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="738" spans="1:9">
+      <c r="A738">
+        <v>745</v>
+      </c>
+      <c r="B738" t="s">
+        <v>19</v>
+      </c>
+      <c r="C738" s="2">
+        <v>45107.15565873843</v>
+      </c>
+      <c r="D738" t="s">
+        <v>21</v>
+      </c>
+      <c r="E738">
+        <v>3829</v>
+      </c>
+      <c r="F738" s="2">
+        <v>45107.16141417824</v>
+      </c>
+      <c r="G738">
+        <v>464</v>
+      </c>
+      <c r="H738" t="s">
+        <v>24</v>
+      </c>
+      <c r="I738">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="739" spans="1:9">
+      <c r="A739">
+        <v>746</v>
+      </c>
+      <c r="B739" t="s">
+        <v>11</v>
+      </c>
+      <c r="C739" s="2">
+        <v>45107.31422678241</v>
+      </c>
+      <c r="D739" t="s">
+        <v>21</v>
+      </c>
+      <c r="E739">
+        <v>10000</v>
+      </c>
+      <c r="F739" s="2">
+        <v>45107.32002942129</v>
+      </c>
+      <c r="G739">
+        <v>1293</v>
+      </c>
+      <c r="H739" t="s">
+        <v>24</v>
+      </c>
+      <c r="I739">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="740" spans="1:9">
+      <c r="A740">
+        <v>747</v>
+      </c>
+      <c r="B740" t="s">
+        <v>11</v>
+      </c>
+      <c r="C740" s="2">
+        <v>45107.32226900463</v>
+      </c>
+      <c r="D740" t="s">
+        <v>21</v>
+      </c>
+      <c r="E740">
+        <v>137004.48</v>
+      </c>
+      <c r="F740" s="2">
+        <v>45107.32800496527</v>
+      </c>
+      <c r="G740">
+        <v>1291</v>
+      </c>
+      <c r="H740" t="s">
+        <v>24</v>
+      </c>
+      <c r="I740">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="741" spans="1:9">
+      <c r="A741">
+        <v>748</v>
+      </c>
+      <c r="B741" t="s">
+        <v>11</v>
+      </c>
+      <c r="C741" s="2">
+        <v>45107.32252729167</v>
+      </c>
+      <c r="D741" t="s">
+        <v>21</v>
+      </c>
+      <c r="E741">
+        <v>68502.24000000001</v>
+      </c>
+      <c r="F741" s="2">
+        <v>45107.32832916667</v>
+      </c>
+      <c r="G741">
+        <v>1289</v>
+      </c>
+      <c r="H741" t="s">
+        <v>24</v>
+      </c>
+      <c r="I741">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="742" spans="1:9">
+      <c r="A742">
+        <v>749</v>
+      </c>
+      <c r="B742" t="s">
+        <v>19</v>
+      </c>
+      <c r="C742" s="2">
+        <v>45107.32812434027</v>
+      </c>
+      <c r="D742" t="s">
+        <v>21</v>
+      </c>
+      <c r="E742">
+        <v>4066.1</v>
+      </c>
+      <c r="F742" s="2">
+        <v>45107.33389173611</v>
+      </c>
+      <c r="G742">
+        <v>1167</v>
+      </c>
+      <c r="H742" t="s">
+        <v>24</v>
+      </c>
+      <c r="I742">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="743" spans="1:9">
+      <c r="A743">
+        <v>750</v>
+      </c>
+      <c r="B743" t="s">
+        <v>19</v>
+      </c>
+      <c r="C743" s="2">
+        <v>45107.32840894676</v>
+      </c>
+      <c r="D743" t="s">
+        <v>21</v>
+      </c>
+      <c r="E743">
+        <v>2100</v>
+      </c>
+      <c r="F743" s="2">
+        <v>45107.33414892361</v>
+      </c>
+      <c r="G743">
+        <v>650</v>
+      </c>
+      <c r="H743" t="s">
+        <v>24</v>
+      </c>
+      <c r="I743">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="744" spans="1:9">
+      <c r="A744">
+        <v>751</v>
+      </c>
+      <c r="B744" t="s">
+        <v>19</v>
+      </c>
+      <c r="C744" s="2">
+        <v>45107.32863320602</v>
+      </c>
+      <c r="D744" t="s">
+        <v>21</v>
+      </c>
+      <c r="E744">
+        <v>1653</v>
+      </c>
+      <c r="F744" s="2">
+        <v>45107.33442255787</v>
+      </c>
+      <c r="G744">
+        <v>567</v>
+      </c>
+      <c r="H744" t="s">
+        <v>24</v>
+      </c>
+      <c r="I744">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/hans/df_cashier.xlsx
+++ b/hans/df_cashier.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2238" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2244" uniqueCount="27">
   <si>
     <t>序号</t>
   </si>
@@ -456,7 +456,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I744"/>
+  <dimension ref="A1:I746"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -22038,6 +22038,64 @@
         <v>0</v>
       </c>
     </row>
+    <row r="745" spans="1:9">
+      <c r="A745">
+        <v>752</v>
+      </c>
+      <c r="B745" t="s">
+        <v>14</v>
+      </c>
+      <c r="C745" s="2">
+        <v>45110.24110543982</v>
+      </c>
+      <c r="D745" t="s">
+        <v>21</v>
+      </c>
+      <c r="E745">
+        <v>350</v>
+      </c>
+      <c r="F745" s="2">
+        <v>45098.24311498843</v>
+      </c>
+      <c r="G745">
+        <v>1295</v>
+      </c>
+      <c r="H745" t="s">
+        <v>24</v>
+      </c>
+      <c r="I745">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="746" spans="1:9">
+      <c r="A746">
+        <v>753</v>
+      </c>
+      <c r="B746" t="s">
+        <v>14</v>
+      </c>
+      <c r="C746" s="2">
+        <v>45110.241370625</v>
+      </c>
+      <c r="D746" t="s">
+        <v>21</v>
+      </c>
+      <c r="E746">
+        <v>0.31</v>
+      </c>
+      <c r="F746" s="2">
+        <v>45107.24337434028</v>
+      </c>
+      <c r="G746">
+        <v>1296</v>
+      </c>
+      <c r="H746" t="s">
+        <v>25</v>
+      </c>
+      <c r="I746">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
